--- a/Submission/data.xlsx
+++ b/Submission/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HCMUT\HK202\Statistics and Probabilities\BTL_Submission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52055BC0-6065-49D1-B121-82B5AA95D23D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C090334F-F4B8-4D35-A083-987E6455B829}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,26 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6819" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6814" uniqueCount="70">
   <si>
     <t>school</t>
   </si>
@@ -170,9 +179,6 @@
   </si>
   <si>
     <t>father</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>LE3</t>
@@ -561,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH396"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection sqref="A1:AH396"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="AG10" sqref="AG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -869,8 +875,9 @@
       <c r="AF3">
         <v>5</v>
       </c>
-      <c r="AG3" t="s">
-        <v>47</v>
+      <c r="AG3" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
       </c>
       <c r="AH3">
         <v>6</v>
@@ -893,7 +900,7 @@
         <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s">
         <v>44</v>
@@ -1012,10 +1019,10 @@
         <v>28</v>
       </c>
       <c r="K5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" t="s">
         <v>49</v>
-      </c>
-      <c r="L5" t="s">
-        <v>50</v>
       </c>
       <c r="M5" t="s">
         <v>41</v>
@@ -1119,7 +1126,7 @@
         <v>45</v>
       </c>
       <c r="L6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M6" t="s">
         <v>46</v>
@@ -1196,7 +1203,7 @@
         <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7">
         <v>16</v>
@@ -1205,7 +1212,7 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
         <v>44</v>
@@ -1217,13 +1224,13 @@
         <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7" t="s">
         <v>45</v>
       </c>
       <c r="L7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M7" t="s">
         <v>41</v>
@@ -1285,8 +1292,9 @@
       <c r="AF7">
         <v>15</v>
       </c>
-      <c r="AG7" t="s">
-        <v>47</v>
+      <c r="AG7" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
       </c>
       <c r="AH7">
         <v>15</v>
@@ -1300,7 +1308,7 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8">
         <v>16</v>
@@ -1309,7 +1317,7 @@
         <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
         <v>44</v>
@@ -1327,7 +1335,7 @@
         <v>45</v>
       </c>
       <c r="L8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" t="s">
         <v>41</v>
@@ -1431,7 +1439,7 @@
         <v>39</v>
       </c>
       <c r="L9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M9" t="s">
         <v>41</v>
@@ -1508,7 +1516,7 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10">
         <v>15</v>
@@ -1517,7 +1525,7 @@
         <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
         <v>37</v>
@@ -1529,13 +1537,13 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" t="s">
         <v>49</v>
-      </c>
-      <c r="K10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" t="s">
-        <v>50</v>
       </c>
       <c r="M10" t="s">
         <v>41</v>
@@ -1597,8 +1605,9 @@
       <c r="AF10">
         <v>16</v>
       </c>
-      <c r="AG10" t="s">
-        <v>47</v>
+      <c r="AG10" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
       </c>
       <c r="AH10">
         <v>19</v>
@@ -1612,7 +1621,7 @@
         <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11">
         <v>15</v>
@@ -1639,7 +1648,7 @@
         <v>45</v>
       </c>
       <c r="L11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M11" t="s">
         <v>41</v>
@@ -1743,7 +1752,7 @@
         <v>28</v>
       </c>
       <c r="L12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M12" t="s">
         <v>41</v>
@@ -1841,13 +1850,13 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13" t="s">
         <v>45</v>
       </c>
       <c r="L13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M13" t="s">
         <v>46</v>
@@ -1924,7 +1933,7 @@
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14">
         <v>15</v>
@@ -1933,7 +1942,7 @@
         <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s">
         <v>44</v>
@@ -1948,7 +1957,7 @@
         <v>28</v>
       </c>
       <c r="K14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L14" t="s">
         <v>40</v>
@@ -2028,7 +2037,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15">
         <v>15</v>
@@ -2132,7 +2141,7 @@
         <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -2159,7 +2168,7 @@
         <v>45</v>
       </c>
       <c r="L16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M16" t="s">
         <v>45</v>
@@ -2263,7 +2272,7 @@
         <v>45</v>
       </c>
       <c r="L17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M17" t="s">
         <v>41</v>
@@ -2361,13 +2370,13 @@
         <v>4</v>
       </c>
       <c r="J18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M18" t="s">
         <v>41</v>
@@ -2471,7 +2480,7 @@
         <v>45</v>
       </c>
       <c r="L19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M19" t="s">
         <v>41</v>
@@ -2548,7 +2557,7 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20">
         <v>17</v>
@@ -2569,10 +2578,10 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L20" t="s">
         <v>40</v>
@@ -2652,7 +2661,7 @@
         <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21">
         <v>16</v>
@@ -2661,7 +2670,7 @@
         <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G21" t="s">
         <v>44</v>
@@ -2679,7 +2688,7 @@
         <v>45</v>
       </c>
       <c r="L21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M21" t="s">
         <v>46</v>
@@ -2756,7 +2765,7 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22">
         <v>15</v>
@@ -2783,7 +2792,7 @@
         <v>45</v>
       </c>
       <c r="L22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M22" t="s">
         <v>41</v>
@@ -2860,7 +2869,7 @@
         <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23">
         <v>15</v>
@@ -2964,7 +2973,7 @@
         <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24">
         <v>16</v>
@@ -2973,7 +2982,7 @@
         <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G24" t="s">
         <v>44</v>
@@ -3068,7 +3077,7 @@
         <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25">
         <v>16</v>
@@ -3077,7 +3086,7 @@
         <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G25" t="s">
         <v>44</v>
@@ -3095,7 +3104,7 @@
         <v>45</v>
       </c>
       <c r="L25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M25" t="s">
         <v>41</v>
@@ -3178,7 +3187,7 @@
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F26" t="s">
         <v>36</v>
@@ -3193,7 +3202,7 @@
         <v>4</v>
       </c>
       <c r="J26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K26" t="s">
         <v>28</v>
@@ -3297,13 +3306,13 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" t="s">
+        <v>48</v>
+      </c>
+      <c r="L27" t="s">
         <v>49</v>
-      </c>
-      <c r="K27" t="s">
-        <v>49</v>
-      </c>
-      <c r="L27" t="s">
-        <v>50</v>
       </c>
       <c r="M27" t="s">
         <v>41</v>
@@ -3380,7 +3389,7 @@
         <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28">
         <v>15</v>
@@ -3407,7 +3416,7 @@
         <v>45</v>
       </c>
       <c r="L28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M28" t="s">
         <v>41</v>
@@ -3484,7 +3493,7 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D29">
         <v>15</v>
@@ -3508,7 +3517,7 @@
         <v>28</v>
       </c>
       <c r="K29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L29" t="s">
         <v>45</v>
@@ -3588,7 +3597,7 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D30">
         <v>16</v>
@@ -3597,7 +3606,7 @@
         <v>35</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G30" t="s">
         <v>37</v>
@@ -3609,13 +3618,13 @@
         <v>4</v>
       </c>
       <c r="J30" t="s">
+        <v>48</v>
+      </c>
+      <c r="K30" t="s">
+        <v>45</v>
+      </c>
+      <c r="L30" t="s">
         <v>49</v>
-      </c>
-      <c r="K30" t="s">
-        <v>45</v>
-      </c>
-      <c r="L30" t="s">
-        <v>50</v>
       </c>
       <c r="M30" t="s">
         <v>41</v>
@@ -3692,7 +3701,7 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D31">
         <v>16</v>
@@ -3719,7 +3728,7 @@
         <v>39</v>
       </c>
       <c r="L31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M31" t="s">
         <v>41</v>
@@ -3796,7 +3805,7 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D32">
         <v>15</v>
@@ -3820,10 +3829,10 @@
         <v>28</v>
       </c>
       <c r="K32" t="s">
+        <v>48</v>
+      </c>
+      <c r="L32" t="s">
         <v>49</v>
-      </c>
-      <c r="L32" t="s">
-        <v>50</v>
       </c>
       <c r="M32" t="s">
         <v>41</v>
@@ -3900,7 +3909,7 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D33">
         <v>15</v>
@@ -3921,13 +3930,13 @@
         <v>4</v>
       </c>
       <c r="J33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M33" t="s">
         <v>41</v>
@@ -4004,13 +4013,13 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D34">
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F34" t="s">
         <v>36</v>
@@ -4108,7 +4117,7 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D35">
         <v>15</v>
@@ -4117,7 +4126,7 @@
         <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G35" t="s">
         <v>44</v>
@@ -4212,7 +4221,7 @@
         <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D36">
         <v>16</v>
@@ -4239,7 +4248,7 @@
         <v>45</v>
       </c>
       <c r="L36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M36" t="s">
         <v>41</v>
@@ -4420,7 +4429,7 @@
         <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D38">
         <v>15</v>
@@ -4429,7 +4438,7 @@
         <v>35</v>
       </c>
       <c r="F38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G38" t="s">
         <v>44</v>
@@ -4444,10 +4453,10 @@
         <v>39</v>
       </c>
       <c r="K38" t="s">
+        <v>48</v>
+      </c>
+      <c r="L38" t="s">
         <v>49</v>
-      </c>
-      <c r="L38" t="s">
-        <v>50</v>
       </c>
       <c r="M38" t="s">
         <v>41</v>
@@ -4524,13 +4533,13 @@
         <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D39">
         <v>16</v>
       </c>
       <c r="E39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F39" t="s">
         <v>36</v>
@@ -4551,7 +4560,7 @@
         <v>39</v>
       </c>
       <c r="L39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M39" t="s">
         <v>41</v>
@@ -4634,7 +4643,7 @@
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F40" t="s">
         <v>36</v>
@@ -4649,7 +4658,7 @@
         <v>4</v>
       </c>
       <c r="J40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K40" t="s">
         <v>28</v>
@@ -4738,7 +4747,7 @@
         <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F41" t="s">
         <v>36</v>
@@ -4759,7 +4768,7 @@
         <v>45</v>
       </c>
       <c r="L41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M41" t="s">
         <v>41</v>
@@ -4845,7 +4854,7 @@
         <v>35</v>
       </c>
       <c r="F42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G42" t="s">
         <v>44</v>
@@ -4863,7 +4872,7 @@
         <v>45</v>
       </c>
       <c r="L42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M42" t="s">
         <v>41</v>
@@ -4940,7 +4949,7 @@
         <v>33</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D43">
         <v>15</v>
@@ -4949,7 +4958,7 @@
         <v>35</v>
       </c>
       <c r="F43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G43" t="s">
         <v>44</v>
@@ -4967,7 +4976,7 @@
         <v>45</v>
       </c>
       <c r="L43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M43" t="s">
         <v>45</v>
@@ -5044,7 +5053,7 @@
         <v>33</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D44">
         <v>15</v>
@@ -5065,7 +5074,7 @@
         <v>4</v>
       </c>
       <c r="J44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K44" t="s">
         <v>39</v>
@@ -5148,7 +5157,7 @@
         <v>33</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D45">
         <v>15</v>
@@ -5169,10 +5178,10 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L45" t="s">
         <v>40</v>
@@ -5261,7 +5270,7 @@
         <v>35</v>
       </c>
       <c r="F46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G46" t="s">
         <v>44</v>
@@ -5365,7 +5374,7 @@
         <v>35</v>
       </c>
       <c r="F47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G47" t="s">
         <v>37</v>
@@ -5469,7 +5478,7 @@
         <v>35</v>
       </c>
       <c r="F48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G48" t="s">
         <v>37</v>
@@ -5484,10 +5493,10 @@
         <v>45</v>
       </c>
       <c r="K48" t="s">
+        <v>48</v>
+      </c>
+      <c r="L48" t="s">
         <v>49</v>
-      </c>
-      <c r="L48" t="s">
-        <v>50</v>
       </c>
       <c r="M48" t="s">
         <v>41</v>
@@ -5564,7 +5573,7 @@
         <v>33</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D49">
         <v>16</v>
@@ -5588,10 +5597,10 @@
         <v>28</v>
       </c>
       <c r="K49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M49" t="s">
         <v>41</v>
@@ -5668,7 +5677,7 @@
         <v>33</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D50">
         <v>15</v>
@@ -5695,7 +5704,7 @@
         <v>45</v>
       </c>
       <c r="L50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M50" t="s">
         <v>41</v>
@@ -5793,7 +5802,7 @@
         <v>4</v>
       </c>
       <c r="J51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K51" t="s">
         <v>39</v>
@@ -5885,7 +5894,7 @@
         <v>35</v>
       </c>
       <c r="F52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G52" t="s">
         <v>44</v>
@@ -5897,10 +5906,10 @@
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L52" t="s">
         <v>40</v>
@@ -5989,7 +5998,7 @@
         <v>35</v>
       </c>
       <c r="F53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G53" t="s">
         <v>44</v>
@@ -6084,7 +6093,7 @@
         <v>33</v>
       </c>
       <c r="C54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D54">
         <v>15</v>
@@ -6093,7 +6102,7 @@
         <v>35</v>
       </c>
       <c r="F54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G54" t="s">
         <v>37</v>
@@ -6209,10 +6218,10 @@
         <v>4</v>
       </c>
       <c r="J55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L55" t="s">
         <v>40</v>
@@ -6301,7 +6310,7 @@
         <v>35</v>
       </c>
       <c r="F56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G56" t="s">
         <v>37</v>
@@ -6521,13 +6530,13 @@
         <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M58" t="s">
         <v>41</v>
@@ -6604,7 +6613,7 @@
         <v>33</v>
       </c>
       <c r="C59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D59">
         <v>15</v>
@@ -6631,7 +6640,7 @@
         <v>28</v>
       </c>
       <c r="L59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M59" t="s">
         <v>41</v>
@@ -6708,7 +6717,7 @@
         <v>33</v>
       </c>
       <c r="C60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D60">
         <v>15</v>
@@ -6717,7 +6726,7 @@
         <v>35</v>
       </c>
       <c r="F60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G60" t="s">
         <v>44</v>
@@ -6735,7 +6744,7 @@
         <v>38</v>
       </c>
       <c r="L60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M60" t="s">
         <v>46</v>
@@ -6833,7 +6842,7 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K61" t="s">
         <v>45</v>
@@ -6922,7 +6931,7 @@
         <v>16</v>
       </c>
       <c r="E62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F62" t="s">
         <v>36</v>
@@ -7041,10 +7050,10 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L63" t="s">
         <v>40</v>
@@ -7133,7 +7142,7 @@
         <v>35</v>
       </c>
       <c r="F64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G64" t="s">
         <v>44</v>
@@ -7148,10 +7157,10 @@
         <v>45</v>
       </c>
       <c r="K64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M64" t="s">
         <v>46</v>
@@ -7255,7 +7264,7 @@
         <v>28</v>
       </c>
       <c r="L65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M65" t="s">
         <v>41</v>
@@ -7341,7 +7350,7 @@
         <v>35</v>
       </c>
       <c r="F66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G66" t="s">
         <v>44</v>
@@ -7353,13 +7362,13 @@
         <v>3</v>
       </c>
       <c r="J66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M66" t="s">
         <v>46</v>
@@ -7445,7 +7454,7 @@
         <v>35</v>
       </c>
       <c r="F67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G67" t="s">
         <v>44</v>
@@ -7460,7 +7469,7 @@
         <v>39</v>
       </c>
       <c r="K67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L67" t="s">
         <v>40</v>
@@ -7540,7 +7549,7 @@
         <v>33</v>
       </c>
       <c r="C68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D68">
         <v>15</v>
@@ -7564,10 +7573,10 @@
         <v>45</v>
       </c>
       <c r="K68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M68" t="s">
         <v>41</v>
@@ -7665,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K69" t="s">
         <v>45</v>
@@ -7754,10 +7763,10 @@
         <v>15</v>
       </c>
       <c r="E70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G70" t="s">
         <v>44</v>
@@ -7772,10 +7781,10 @@
         <v>28</v>
       </c>
       <c r="K70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M70" t="s">
         <v>41</v>
@@ -7858,10 +7867,10 @@
         <v>15</v>
       </c>
       <c r="E71" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G71" t="s">
         <v>44</v>
@@ -7879,7 +7888,7 @@
         <v>45</v>
       </c>
       <c r="L71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M71" t="s">
         <v>46</v>
@@ -7956,7 +7965,7 @@
         <v>33</v>
       </c>
       <c r="C72" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D72">
         <v>16</v>
@@ -7983,7 +7992,7 @@
         <v>45</v>
       </c>
       <c r="L72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M72" t="s">
         <v>46</v>
@@ -8060,7 +8069,7 @@
         <v>33</v>
       </c>
       <c r="C73" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D73">
         <v>15</v>
@@ -8170,7 +8179,7 @@
         <v>15</v>
       </c>
       <c r="E74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F74" t="s">
         <v>36</v>
@@ -8191,7 +8200,7 @@
         <v>45</v>
       </c>
       <c r="L74" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M74" t="s">
         <v>41</v>
@@ -8268,7 +8277,7 @@
         <v>33</v>
       </c>
       <c r="C75" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D75">
         <v>16</v>
@@ -8295,7 +8304,7 @@
         <v>45</v>
       </c>
       <c r="L75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M75" t="s">
         <v>41</v>
@@ -8396,10 +8405,10 @@
         <v>45</v>
       </c>
       <c r="K76" t="s">
+        <v>48</v>
+      </c>
+      <c r="L76" t="s">
         <v>49</v>
-      </c>
-      <c r="L76" t="s">
-        <v>50</v>
       </c>
       <c r="M76" t="s">
         <v>41</v>
@@ -8476,7 +8485,7 @@
         <v>33</v>
       </c>
       <c r="C77" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D77">
         <v>15</v>
@@ -8503,7 +8512,7 @@
         <v>45</v>
       </c>
       <c r="L77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M77" t="s">
         <v>41</v>
@@ -8580,7 +8589,7 @@
         <v>33</v>
       </c>
       <c r="C78" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D78">
         <v>15</v>
@@ -8711,7 +8720,7 @@
         <v>45</v>
       </c>
       <c r="L79" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M79" t="s">
         <v>41</v>
@@ -8788,7 +8797,7 @@
         <v>33</v>
       </c>
       <c r="C80" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D80">
         <v>17</v>
@@ -8815,7 +8824,7 @@
         <v>45</v>
       </c>
       <c r="L80" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M80" t="s">
         <v>41</v>
@@ -8981,8 +8990,9 @@
       <c r="AF81">
         <v>5</v>
       </c>
-      <c r="AG81" t="s">
-        <v>47</v>
+      <c r="AG81" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
       </c>
       <c r="AH81">
         <v>5</v>
@@ -8996,7 +9006,7 @@
         <v>33</v>
       </c>
       <c r="C82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D82">
         <v>15</v>
@@ -9020,7 +9030,7 @@
         <v>45</v>
       </c>
       <c r="K82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L82" t="s">
         <v>40</v>
@@ -9100,7 +9110,7 @@
         <v>33</v>
       </c>
       <c r="C83" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D83">
         <v>15</v>
@@ -9127,7 +9137,7 @@
         <v>45</v>
       </c>
       <c r="L83" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M83" t="s">
         <v>41</v>
@@ -9213,7 +9223,7 @@
         <v>35</v>
       </c>
       <c r="F84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G84" t="s">
         <v>44</v>
@@ -9225,13 +9235,13 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K84" t="s">
         <v>45</v>
       </c>
       <c r="L84" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M84" t="s">
         <v>41</v>
@@ -9308,7 +9318,7 @@
         <v>33</v>
       </c>
       <c r="C85" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D85">
         <v>15</v>
@@ -9317,7 +9327,7 @@
         <v>35</v>
       </c>
       <c r="F85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G85" t="s">
         <v>44</v>
@@ -9329,13 +9339,13 @@
         <v>2</v>
       </c>
       <c r="J85" t="s">
+        <v>48</v>
+      </c>
+      <c r="K85" t="s">
+        <v>48</v>
+      </c>
+      <c r="L85" t="s">
         <v>49</v>
-      </c>
-      <c r="K85" t="s">
-        <v>49</v>
-      </c>
-      <c r="L85" t="s">
-        <v>50</v>
       </c>
       <c r="M85" t="s">
         <v>41</v>
@@ -9439,7 +9449,7 @@
         <v>45</v>
       </c>
       <c r="L86" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M86" t="s">
         <v>46</v>
@@ -9537,13 +9547,13 @@
         <v>4</v>
       </c>
       <c r="J87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L87" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M87" t="s">
         <v>46</v>
@@ -9629,7 +9639,7 @@
         <v>35</v>
       </c>
       <c r="F88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G88" t="s">
         <v>44</v>
@@ -9751,7 +9761,7 @@
         <v>45</v>
       </c>
       <c r="L89" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M89" t="s">
         <v>41</v>
@@ -9828,7 +9838,7 @@
         <v>33</v>
       </c>
       <c r="C90" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D90">
         <v>16</v>
@@ -9849,13 +9859,13 @@
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K90" t="s">
         <v>45</v>
       </c>
       <c r="L90" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M90" t="s">
         <v>46</v>
@@ -9932,7 +9942,7 @@
         <v>33</v>
       </c>
       <c r="C91" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D91">
         <v>16</v>
@@ -9941,7 +9951,7 @@
         <v>35</v>
       </c>
       <c r="F91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G91" t="s">
         <v>37</v>
@@ -9959,7 +9969,7 @@
         <v>28</v>
       </c>
       <c r="L91" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M91" t="s">
         <v>41</v>
@@ -10063,7 +10073,7 @@
         <v>45</v>
       </c>
       <c r="L92" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M92" t="s">
         <v>41</v>
@@ -10161,13 +10171,13 @@
         <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K93" t="s">
         <v>45</v>
       </c>
       <c r="L93" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M93" t="s">
         <v>41</v>
@@ -10253,7 +10263,7 @@
         <v>35</v>
       </c>
       <c r="F94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G94" t="s">
         <v>44</v>
@@ -10271,7 +10281,7 @@
         <v>45</v>
       </c>
       <c r="L94" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M94" t="s">
         <v>46</v>
@@ -10372,10 +10382,10 @@
         <v>39</v>
       </c>
       <c r="K95" t="s">
+        <v>48</v>
+      </c>
+      <c r="L95" t="s">
         <v>49</v>
-      </c>
-      <c r="L95" t="s">
-        <v>50</v>
       </c>
       <c r="M95" t="s">
         <v>41</v>
@@ -10452,7 +10462,7 @@
         <v>33</v>
       </c>
       <c r="C96" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D96">
         <v>15</v>
@@ -10461,7 +10471,7 @@
         <v>35</v>
       </c>
       <c r="F96" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G96" t="s">
         <v>44</v>
@@ -10473,13 +10483,13 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K96" t="s">
         <v>28</v>
       </c>
       <c r="L96" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M96" t="s">
         <v>41</v>
@@ -10562,7 +10572,7 @@
         <v>15</v>
       </c>
       <c r="E97" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F97" t="s">
         <v>36</v>
@@ -10583,7 +10593,7 @@
         <v>45</v>
       </c>
       <c r="L97" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M97" t="s">
         <v>41</v>
@@ -10660,13 +10670,13 @@
         <v>33</v>
       </c>
       <c r="C98" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D98">
         <v>16</v>
       </c>
       <c r="E98" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F98" t="s">
         <v>36</v>
@@ -10681,13 +10691,13 @@
         <v>3</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K98" t="s">
         <v>45</v>
       </c>
       <c r="L98" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M98" t="s">
         <v>41</v>
@@ -10895,7 +10905,7 @@
         <v>45</v>
       </c>
       <c r="L100" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M100" t="s">
         <v>41</v>
@@ -11061,8 +11071,9 @@
       <c r="AF101">
         <v>7</v>
       </c>
-      <c r="AG101" t="s">
-        <v>47</v>
+      <c r="AG101" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
       </c>
       <c r="AH101">
         <v>8</v>
@@ -11076,7 +11087,7 @@
         <v>33</v>
       </c>
       <c r="C102" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D102">
         <v>16</v>
@@ -11097,10 +11108,10 @@
         <v>4</v>
       </c>
       <c r="J102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L102" t="s">
         <v>45</v>
@@ -11180,7 +11191,7 @@
         <v>33</v>
       </c>
       <c r="C103" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D103">
         <v>16</v>
@@ -11201,7 +11212,7 @@
         <v>4</v>
       </c>
       <c r="J103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K103" t="s">
         <v>39</v>
@@ -11284,7 +11295,7 @@
         <v>33</v>
       </c>
       <c r="C104" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D104">
         <v>15</v>
@@ -11305,7 +11316,7 @@
         <v>4</v>
       </c>
       <c r="J104" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K104" t="s">
         <v>45</v>
@@ -11409,13 +11420,13 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
+        <v>48</v>
+      </c>
+      <c r="K105" t="s">
+        <v>45</v>
+      </c>
+      <c r="L105" t="s">
         <v>49</v>
-      </c>
-      <c r="K105" t="s">
-        <v>45</v>
-      </c>
-      <c r="L105" t="s">
-        <v>50</v>
       </c>
       <c r="M105" t="s">
         <v>41</v>
@@ -11492,7 +11503,7 @@
         <v>33</v>
       </c>
       <c r="C106" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D106">
         <v>15</v>
@@ -11513,7 +11524,7 @@
         <v>4</v>
       </c>
       <c r="J106" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K106" t="s">
         <v>45</v>
@@ -11623,7 +11634,7 @@
         <v>28</v>
       </c>
       <c r="L107" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M107" t="s">
         <v>46</v>
@@ -11804,7 +11815,7 @@
         <v>33</v>
       </c>
       <c r="C109" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D109">
         <v>16</v>
@@ -11825,13 +11836,13 @@
         <v>3</v>
       </c>
       <c r="J109" t="s">
+        <v>48</v>
+      </c>
+      <c r="K109" t="s">
+        <v>45</v>
+      </c>
+      <c r="L109" t="s">
         <v>49</v>
-      </c>
-      <c r="K109" t="s">
-        <v>45</v>
-      </c>
-      <c r="L109" t="s">
-        <v>50</v>
       </c>
       <c r="M109" t="s">
         <v>46</v>
@@ -11908,13 +11919,13 @@
         <v>33</v>
       </c>
       <c r="C110" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D110">
         <v>15</v>
       </c>
       <c r="E110" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F110" t="s">
         <v>36</v>
@@ -11935,7 +11946,7 @@
         <v>45</v>
       </c>
       <c r="L110" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M110" t="s">
         <v>46</v>
@@ -12021,7 +12032,7 @@
         <v>35</v>
       </c>
       <c r="F111" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G111" t="s">
         <v>44</v>
@@ -12116,7 +12127,7 @@
         <v>33</v>
       </c>
       <c r="C112" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D112">
         <v>15</v>
@@ -12125,7 +12136,7 @@
         <v>35</v>
       </c>
       <c r="F112" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G112" t="s">
         <v>37</v>
@@ -12226,7 +12237,7 @@
         <v>16</v>
       </c>
       <c r="E113" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F113" t="s">
         <v>36</v>
@@ -12241,13 +12252,13 @@
         <v>3</v>
       </c>
       <c r="J113" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K113" t="s">
         <v>45</v>
       </c>
       <c r="L113" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M113" t="s">
         <v>46</v>
@@ -12351,7 +12362,7 @@
         <v>45</v>
       </c>
       <c r="L114" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M114" t="s">
         <v>41</v>
@@ -12428,7 +12439,7 @@
         <v>33</v>
       </c>
       <c r="C115" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D115">
         <v>15</v>
@@ -12437,7 +12448,7 @@
         <v>35</v>
       </c>
       <c r="F115" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G115" t="s">
         <v>44</v>
@@ -12532,13 +12543,13 @@
         <v>33</v>
       </c>
       <c r="C116" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D116">
         <v>15</v>
       </c>
       <c r="E116" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F116" t="s">
         <v>36</v>
@@ -12556,10 +12567,10 @@
         <v>28</v>
       </c>
       <c r="K116" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L116" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M116" t="s">
         <v>41</v>
@@ -12636,7 +12647,7 @@
         <v>33</v>
       </c>
       <c r="C117" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D117">
         <v>16</v>
@@ -12740,7 +12751,7 @@
         <v>33</v>
       </c>
       <c r="C118" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D118">
         <v>15</v>
@@ -12767,7 +12778,7 @@
         <v>39</v>
       </c>
       <c r="L118" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M118" t="s">
         <v>46</v>
@@ -12844,7 +12855,7 @@
         <v>33</v>
       </c>
       <c r="C119" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D119">
         <v>16</v>
@@ -12868,10 +12879,10 @@
         <v>45</v>
       </c>
       <c r="K119" t="s">
+        <v>48</v>
+      </c>
+      <c r="L119" t="s">
         <v>49</v>
-      </c>
-      <c r="L119" t="s">
-        <v>50</v>
       </c>
       <c r="M119" t="s">
         <v>46</v>
@@ -12948,13 +12959,13 @@
         <v>33</v>
       </c>
       <c r="C120" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D120">
         <v>17</v>
       </c>
       <c r="E120" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F120" t="s">
         <v>36</v>
@@ -13052,7 +13063,7 @@
         <v>33</v>
       </c>
       <c r="C121" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D121">
         <v>15</v>
@@ -13079,7 +13090,7 @@
         <v>45</v>
       </c>
       <c r="L121" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M121" t="s">
         <v>46</v>
@@ -13180,7 +13191,7 @@
         <v>38</v>
       </c>
       <c r="K122" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L122" t="s">
         <v>40</v>
@@ -13260,7 +13271,7 @@
         <v>33</v>
       </c>
       <c r="C123" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D123">
         <v>15</v>
@@ -13281,13 +13292,13 @@
         <v>2</v>
       </c>
       <c r="J123" t="s">
+        <v>48</v>
+      </c>
+      <c r="K123" t="s">
+        <v>48</v>
+      </c>
+      <c r="L123" t="s">
         <v>49</v>
-      </c>
-      <c r="K123" t="s">
-        <v>49</v>
-      </c>
-      <c r="L123" t="s">
-        <v>50</v>
       </c>
       <c r="M123" t="s">
         <v>46</v>
@@ -13373,7 +13384,7 @@
         <v>35</v>
       </c>
       <c r="F124" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G124" t="s">
         <v>44</v>
@@ -13468,7 +13479,7 @@
         <v>33</v>
       </c>
       <c r="C125" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D125">
         <v>16</v>
@@ -13599,7 +13610,7 @@
         <v>45</v>
       </c>
       <c r="L126" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M126" t="s">
         <v>41</v>
@@ -13676,7 +13687,7 @@
         <v>33</v>
       </c>
       <c r="C127" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D127">
         <v>15</v>
@@ -13697,13 +13708,13 @@
         <v>4</v>
       </c>
       <c r="J127" t="s">
+        <v>48</v>
+      </c>
+      <c r="K127" t="s">
+        <v>48</v>
+      </c>
+      <c r="L127" t="s">
         <v>49</v>
-      </c>
-      <c r="K127" t="s">
-        <v>49</v>
-      </c>
-      <c r="L127" t="s">
-        <v>50</v>
       </c>
       <c r="M127" t="s">
         <v>46</v>
@@ -13789,7 +13800,7 @@
         <v>35</v>
       </c>
       <c r="F128" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G128" t="s">
         <v>37</v>
@@ -13807,7 +13818,7 @@
         <v>45</v>
       </c>
       <c r="L128" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M128" t="s">
         <v>41</v>
@@ -13988,13 +13999,13 @@
         <v>33</v>
       </c>
       <c r="C130" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D130">
         <v>18</v>
       </c>
       <c r="E130" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F130" t="s">
         <v>36</v>
@@ -14009,13 +14020,13 @@
         <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K130" t="s">
         <v>45</v>
       </c>
       <c r="L130" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M130" t="s">
         <v>41</v>
@@ -14092,13 +14103,13 @@
         <v>33</v>
       </c>
       <c r="C131" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D131">
         <v>16</v>
       </c>
       <c r="E131" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F131" t="s">
         <v>36</v>
@@ -14202,7 +14213,7 @@
         <v>15</v>
       </c>
       <c r="E132" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F132" t="s">
         <v>36</v>
@@ -14217,7 +14228,7 @@
         <v>4</v>
       </c>
       <c r="J132" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K132" t="s">
         <v>39</v>
@@ -14413,7 +14424,7 @@
         <v>35</v>
       </c>
       <c r="F134" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G134" t="s">
         <v>44</v>
@@ -14529,7 +14540,7 @@
         <v>4</v>
       </c>
       <c r="J135" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K135" t="s">
         <v>45</v>
@@ -14612,13 +14623,13 @@
         <v>33</v>
       </c>
       <c r="C136" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D136">
         <v>15</v>
       </c>
       <c r="E136" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F136" t="s">
         <v>36</v>
@@ -14737,7 +14748,7 @@
         <v>4</v>
       </c>
       <c r="J137" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K137" t="s">
         <v>38</v>
@@ -14820,13 +14831,13 @@
         <v>33</v>
       </c>
       <c r="C138" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D138">
         <v>17</v>
       </c>
       <c r="E138" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F138" t="s">
         <v>36</v>
@@ -15028,7 +15039,7 @@
         <v>33</v>
       </c>
       <c r="C140" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D140">
         <v>16</v>
@@ -15037,7 +15048,7 @@
         <v>35</v>
       </c>
       <c r="F140" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G140" t="s">
         <v>44</v>
@@ -15049,7 +15060,7 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K140" t="s">
         <v>45</v>
@@ -15236,7 +15247,7 @@
         <v>33</v>
       </c>
       <c r="C142" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D142">
         <v>15</v>
@@ -15260,7 +15271,7 @@
         <v>39</v>
       </c>
       <c r="K142" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L142" t="s">
         <v>40</v>
@@ -15340,7 +15351,7 @@
         <v>33</v>
       </c>
       <c r="C143" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D143">
         <v>16</v>
@@ -15349,7 +15360,7 @@
         <v>35</v>
       </c>
       <c r="F143" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G143" t="s">
         <v>44</v>
@@ -15361,13 +15372,13 @@
         <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K143" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L143" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M143" t="s">
         <v>46</v>
@@ -15468,7 +15479,7 @@
         <v>39</v>
       </c>
       <c r="K144" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L144" t="s">
         <v>40</v>
@@ -15557,7 +15568,7 @@
         <v>35</v>
       </c>
       <c r="F145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G145" t="s">
         <v>44</v>
@@ -15652,7 +15663,7 @@
         <v>33</v>
       </c>
       <c r="C146" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D146">
         <v>17</v>
@@ -15679,7 +15690,7 @@
         <v>45</v>
       </c>
       <c r="L146" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M146" t="s">
         <v>41</v>
@@ -15780,7 +15791,7 @@
         <v>45</v>
       </c>
       <c r="K147" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L147" t="s">
         <v>40</v>
@@ -15884,10 +15895,10 @@
         <v>28</v>
       </c>
       <c r="K148" t="s">
+        <v>48</v>
+      </c>
+      <c r="L148" t="s">
         <v>49</v>
-      </c>
-      <c r="L148" t="s">
-        <v>50</v>
       </c>
       <c r="M148" t="s">
         <v>46</v>
@@ -16068,7 +16079,7 @@
         <v>33</v>
       </c>
       <c r="C150" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D150">
         <v>16</v>
@@ -16172,7 +16183,7 @@
         <v>33</v>
       </c>
       <c r="C151" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D151">
         <v>15</v>
@@ -16181,7 +16192,7 @@
         <v>35</v>
       </c>
       <c r="F151" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G151" t="s">
         <v>37</v>
@@ -16193,7 +16204,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K151" t="s">
         <v>45</v>
@@ -16276,7 +16287,7 @@
         <v>33</v>
       </c>
       <c r="C152" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D152">
         <v>18</v>
@@ -16285,7 +16296,7 @@
         <v>35</v>
       </c>
       <c r="F152" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G152" t="s">
         <v>44</v>
@@ -16380,7 +16391,7 @@
         <v>33</v>
       </c>
       <c r="C153" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D153">
         <v>16</v>
@@ -16389,7 +16400,7 @@
         <v>35</v>
       </c>
       <c r="F153" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G153" t="s">
         <v>44</v>
@@ -16490,7 +16501,7 @@
         <v>15</v>
       </c>
       <c r="E154" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F154" t="s">
         <v>36</v>
@@ -16505,13 +16516,13 @@
         <v>3</v>
       </c>
       <c r="J154" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K154" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L154" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M154" t="s">
         <v>45</v>
@@ -16588,7 +16599,7 @@
         <v>33</v>
       </c>
       <c r="C155" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D155">
         <v>19</v>
@@ -16609,13 +16620,13 @@
         <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K155" t="s">
         <v>38</v>
       </c>
       <c r="L155" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M155" t="s">
         <v>41</v>
@@ -16796,13 +16807,13 @@
         <v>33</v>
       </c>
       <c r="C157" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D157">
         <v>15</v>
       </c>
       <c r="E157" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F157" t="s">
         <v>36</v>
@@ -16820,7 +16831,7 @@
         <v>38</v>
       </c>
       <c r="K157" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L157" t="s">
         <v>40</v>
@@ -16900,16 +16911,16 @@
         <v>33</v>
       </c>
       <c r="C158" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D158">
         <v>17</v>
       </c>
       <c r="E158" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F158" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G158" t="s">
         <v>44</v>
@@ -16927,7 +16938,7 @@
         <v>45</v>
       </c>
       <c r="L158" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M158" t="s">
         <v>41</v>
@@ -17010,7 +17021,7 @@
         <v>18</v>
       </c>
       <c r="E159" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F159" t="s">
         <v>36</v>
@@ -17108,13 +17119,13 @@
         <v>33</v>
       </c>
       <c r="C160" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D160">
         <v>16</v>
       </c>
       <c r="E160" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F160" t="s">
         <v>36</v>
@@ -17212,7 +17223,7 @@
         <v>33</v>
       </c>
       <c r="C161" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D161">
         <v>16</v>
@@ -17236,7 +17247,7 @@
         <v>45</v>
       </c>
       <c r="K161" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L161" t="s">
         <v>40</v>
@@ -17316,16 +17327,16 @@
         <v>33</v>
       </c>
       <c r="C162" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D162">
         <v>17</v>
       </c>
       <c r="E162" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F162" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G162" t="s">
         <v>44</v>
@@ -17420,13 +17431,13 @@
         <v>33</v>
       </c>
       <c r="C163" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D163">
         <v>15</v>
       </c>
       <c r="E163" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F163" t="s">
         <v>36</v>
@@ -17524,7 +17535,7 @@
         <v>33</v>
       </c>
       <c r="C164" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D164">
         <v>16</v>
@@ -17533,7 +17544,7 @@
         <v>35</v>
       </c>
       <c r="F164" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G164" t="s">
         <v>44</v>
@@ -17628,7 +17639,7 @@
         <v>33</v>
       </c>
       <c r="C165" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D165">
         <v>17</v>
@@ -17652,7 +17663,7 @@
         <v>38</v>
       </c>
       <c r="K165" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L165" t="s">
         <v>40</v>
@@ -17732,16 +17743,16 @@
         <v>33</v>
       </c>
       <c r="C166" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D166">
         <v>17</v>
       </c>
       <c r="E166" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F166" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G166" t="s">
         <v>44</v>
@@ -17756,7 +17767,7 @@
         <v>45</v>
       </c>
       <c r="K166" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L166" t="s">
         <v>40</v>
@@ -17836,7 +17847,7 @@
         <v>33</v>
       </c>
       <c r="C167" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D167">
         <v>16</v>
@@ -17857,10 +17868,10 @@
         <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K167" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L167" t="s">
         <v>40</v>
@@ -17940,7 +17951,7 @@
         <v>33</v>
       </c>
       <c r="C168" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D168">
         <v>16</v>
@@ -18068,10 +18079,10 @@
         <v>28</v>
       </c>
       <c r="K169" t="s">
+        <v>48</v>
+      </c>
+      <c r="L169" t="s">
         <v>49</v>
-      </c>
-      <c r="L169" t="s">
-        <v>50</v>
       </c>
       <c r="M169" t="s">
         <v>46</v>
@@ -18175,7 +18186,7 @@
         <v>45</v>
       </c>
       <c r="L170" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M170" t="s">
         <v>41</v>
@@ -18279,7 +18290,7 @@
         <v>28</v>
       </c>
       <c r="L171" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M171" t="s">
         <v>41</v>
@@ -18356,7 +18367,7 @@
         <v>33</v>
       </c>
       <c r="C172" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D172">
         <v>16</v>
@@ -18460,7 +18471,7 @@
         <v>33</v>
       </c>
       <c r="C173" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D173">
         <v>16</v>
@@ -18487,7 +18498,7 @@
         <v>45</v>
       </c>
       <c r="L173" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M173" t="s">
         <v>41</v>
@@ -18564,7 +18575,7 @@
         <v>33</v>
       </c>
       <c r="C174" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D174">
         <v>17</v>
@@ -18573,7 +18584,7 @@
         <v>35</v>
       </c>
       <c r="F174" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G174" t="s">
         <v>44</v>
@@ -18591,7 +18602,7 @@
         <v>45</v>
       </c>
       <c r="L174" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M174" t="s">
         <v>41</v>
@@ -18692,10 +18703,10 @@
         <v>38</v>
       </c>
       <c r="K175" t="s">
+        <v>48</v>
+      </c>
+      <c r="L175" t="s">
         <v>49</v>
-      </c>
-      <c r="L175" t="s">
-        <v>50</v>
       </c>
       <c r="M175" t="s">
         <v>41</v>
@@ -18781,7 +18792,7 @@
         <v>35</v>
       </c>
       <c r="F176" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G176" t="s">
         <v>44</v>
@@ -18799,7 +18810,7 @@
         <v>45</v>
       </c>
       <c r="L176" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M176" t="s">
         <v>41</v>
@@ -18876,7 +18887,7 @@
         <v>33</v>
       </c>
       <c r="C177" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D177">
         <v>17</v>
@@ -18885,7 +18896,7 @@
         <v>35</v>
       </c>
       <c r="F177" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G177" t="s">
         <v>44</v>
@@ -19001,13 +19012,13 @@
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K178" t="s">
         <v>45</v>
       </c>
       <c r="L178" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M178" t="s">
         <v>41</v>
@@ -19084,7 +19095,7 @@
         <v>33</v>
       </c>
       <c r="C179" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D179">
         <v>17</v>
@@ -19111,7 +19122,7 @@
         <v>45</v>
       </c>
       <c r="L179" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M179" t="s">
         <v>46</v>
@@ -19188,13 +19199,13 @@
         <v>33</v>
       </c>
       <c r="C180" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D180">
         <v>16</v>
       </c>
       <c r="E180" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F180" t="s">
         <v>36</v>
@@ -19212,7 +19223,7 @@
         <v>39</v>
       </c>
       <c r="K180" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L180" t="s">
         <v>45</v>
@@ -19292,7 +19303,7 @@
         <v>33</v>
       </c>
       <c r="C181" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D181">
         <v>17</v>
@@ -19396,7 +19407,7 @@
         <v>33</v>
       </c>
       <c r="C182" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D182">
         <v>16</v>
@@ -19423,7 +19434,7 @@
         <v>45</v>
       </c>
       <c r="L182" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M182" t="s">
         <v>41</v>
@@ -19500,7 +19511,7 @@
         <v>33</v>
       </c>
       <c r="C183" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D183">
         <v>16</v>
@@ -19521,13 +19532,13 @@
         <v>3</v>
       </c>
       <c r="J183" t="s">
+        <v>48</v>
+      </c>
+      <c r="K183" t="s">
+        <v>45</v>
+      </c>
+      <c r="L183" t="s">
         <v>49</v>
-      </c>
-      <c r="K183" t="s">
-        <v>45</v>
-      </c>
-      <c r="L183" t="s">
-        <v>50</v>
       </c>
       <c r="M183" t="s">
         <v>41</v>
@@ -19625,13 +19636,13 @@
         <v>4</v>
       </c>
       <c r="J184" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K184" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L184" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M184" t="s">
         <v>46</v>
@@ -19717,7 +19728,7 @@
         <v>35</v>
       </c>
       <c r="F185" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G185" t="s">
         <v>44</v>
@@ -19735,7 +19746,7 @@
         <v>45</v>
       </c>
       <c r="L185" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M185" t="s">
         <v>41</v>
@@ -19839,7 +19850,7 @@
         <v>45</v>
       </c>
       <c r="L186" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M186" t="s">
         <v>41</v>
@@ -19916,7 +19927,7 @@
         <v>33</v>
       </c>
       <c r="C187" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D187">
         <v>17</v>
@@ -19937,10 +19948,10 @@
         <v>3</v>
       </c>
       <c r="J187" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K187" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L187" t="s">
         <v>45</v>
@@ -20020,7 +20031,7 @@
         <v>33</v>
       </c>
       <c r="C188" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D188">
         <v>16</v>
@@ -20041,10 +20052,10 @@
         <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K188" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L188" t="s">
         <v>45</v>
@@ -20124,7 +20135,7 @@
         <v>33</v>
       </c>
       <c r="C189" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D189">
         <v>16</v>
@@ -20133,7 +20144,7 @@
         <v>35</v>
       </c>
       <c r="F189" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G189" t="s">
         <v>44</v>
@@ -20255,7 +20266,7 @@
         <v>45</v>
       </c>
       <c r="L190" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M190" t="s">
         <v>41</v>
@@ -20332,13 +20343,13 @@
         <v>33</v>
       </c>
       <c r="C191" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D191">
         <v>17</v>
       </c>
       <c r="E191" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F191" t="s">
         <v>36</v>
@@ -20359,7 +20370,7 @@
         <v>45</v>
       </c>
       <c r="L191" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M191" t="s">
         <v>41</v>
@@ -20457,10 +20468,10 @@
         <v>3</v>
       </c>
       <c r="J192" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K192" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L192" t="s">
         <v>40</v>
@@ -20564,7 +20575,7 @@
         <v>38</v>
       </c>
       <c r="K193" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L193" t="s">
         <v>40</v>
@@ -20644,7 +20655,7 @@
         <v>33</v>
       </c>
       <c r="C194" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D194">
         <v>17</v>
@@ -20668,7 +20679,7 @@
         <v>38</v>
       </c>
       <c r="K194" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L194" t="s">
         <v>45</v>
@@ -20748,13 +20759,13 @@
         <v>33</v>
       </c>
       <c r="C195" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D195">
         <v>16</v>
       </c>
       <c r="E195" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F195" t="s">
         <v>36</v>
@@ -20769,13 +20780,13 @@
         <v>3</v>
       </c>
       <c r="J195" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K195" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L195" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M195" t="s">
         <v>41</v>
@@ -20852,7 +20863,7 @@
         <v>33</v>
       </c>
       <c r="C196" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D196">
         <v>16</v>
@@ -20879,7 +20890,7 @@
         <v>45</v>
       </c>
       <c r="L196" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M196" t="s">
         <v>46</v>
@@ -20965,7 +20976,7 @@
         <v>35</v>
       </c>
       <c r="F197" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G197" t="s">
         <v>44</v>
@@ -20977,10 +20988,10 @@
         <v>4</v>
       </c>
       <c r="J197" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K197" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L197" t="s">
         <v>40</v>
@@ -21060,7 +21071,7 @@
         <v>33</v>
       </c>
       <c r="C198" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D198">
         <v>17</v>
@@ -21081,13 +21092,13 @@
         <v>4</v>
       </c>
       <c r="J198" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K198" t="s">
         <v>39</v>
       </c>
       <c r="L198" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M198" t="s">
         <v>41</v>
@@ -21164,16 +21175,16 @@
         <v>33</v>
       </c>
       <c r="C199" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D199">
         <v>16</v>
       </c>
       <c r="E199" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F199" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G199" t="s">
         <v>44</v>
@@ -21191,7 +21202,7 @@
         <v>45</v>
       </c>
       <c r="L199" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M199" t="s">
         <v>46</v>
@@ -21289,13 +21300,13 @@
         <v>4</v>
       </c>
       <c r="J200" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K200" t="s">
         <v>39</v>
       </c>
       <c r="L200" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M200" t="s">
         <v>41</v>
@@ -21381,7 +21392,7 @@
         <v>35</v>
       </c>
       <c r="F201" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G201" t="s">
         <v>44</v>
@@ -21399,7 +21410,7 @@
         <v>39</v>
       </c>
       <c r="L201" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M201" t="s">
         <v>41</v>
@@ -21503,7 +21514,7 @@
         <v>45</v>
       </c>
       <c r="L202" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M202" t="s">
         <v>41</v>
@@ -21607,7 +21618,7 @@
         <v>45</v>
       </c>
       <c r="L203" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M203" t="s">
         <v>41</v>
@@ -21794,7 +21805,7 @@
         <v>17</v>
       </c>
       <c r="E205" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F205" t="s">
         <v>36</v>
@@ -21815,7 +21826,7 @@
         <v>45</v>
       </c>
       <c r="L205" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M205" t="s">
         <v>41</v>
@@ -21898,7 +21909,7 @@
         <v>16</v>
       </c>
       <c r="E206" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F206" t="s">
         <v>36</v>
@@ -21913,13 +21924,13 @@
         <v>2</v>
       </c>
       <c r="J206" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K206" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L206" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M206" t="s">
         <v>41</v>
@@ -22020,10 +22031,10 @@
         <v>38</v>
       </c>
       <c r="K207" t="s">
+        <v>48</v>
+      </c>
+      <c r="L207" t="s">
         <v>49</v>
-      </c>
-      <c r="L207" t="s">
-        <v>50</v>
       </c>
       <c r="M207" t="s">
         <v>41</v>
@@ -22121,7 +22132,7 @@
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K208" t="s">
         <v>45</v>
@@ -22335,7 +22346,7 @@
         <v>45</v>
       </c>
       <c r="L210" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M210" t="s">
         <v>41</v>
@@ -22418,7 +22429,7 @@
         <v>17</v>
       </c>
       <c r="E211" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F211" t="s">
         <v>36</v>
@@ -22439,7 +22450,7 @@
         <v>45</v>
       </c>
       <c r="L211" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M211" t="s">
         <v>41</v>
@@ -22543,7 +22554,7 @@
         <v>45</v>
       </c>
       <c r="L212" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M212" t="s">
         <v>45</v>
@@ -22620,7 +22631,7 @@
         <v>33</v>
       </c>
       <c r="C213" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D213">
         <v>17</v>
@@ -22629,7 +22640,7 @@
         <v>35</v>
       </c>
       <c r="F213" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G213" t="s">
         <v>44</v>
@@ -22641,13 +22652,13 @@
         <v>4</v>
       </c>
       <c r="J213" t="s">
+        <v>48</v>
+      </c>
+      <c r="K213" t="s">
+        <v>45</v>
+      </c>
+      <c r="L213" t="s">
         <v>49</v>
-      </c>
-      <c r="K213" t="s">
-        <v>45</v>
-      </c>
-      <c r="L213" t="s">
-        <v>50</v>
       </c>
       <c r="M213" t="s">
         <v>41</v>
@@ -22751,7 +22762,7 @@
         <v>45</v>
       </c>
       <c r="L214" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M214" t="s">
         <v>41</v>
@@ -22828,7 +22839,7 @@
         <v>33</v>
       </c>
       <c r="C215" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D215">
         <v>18</v>
@@ -22849,13 +22860,13 @@
         <v>2</v>
       </c>
       <c r="J215" t="s">
+        <v>48</v>
+      </c>
+      <c r="K215" t="s">
+        <v>45</v>
+      </c>
+      <c r="L215" t="s">
         <v>49</v>
-      </c>
-      <c r="K215" t="s">
-        <v>45</v>
-      </c>
-      <c r="L215" t="s">
-        <v>50</v>
       </c>
       <c r="M215" t="s">
         <v>41</v>
@@ -22938,10 +22949,10 @@
         <v>17</v>
       </c>
       <c r="E216" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F216" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G216" t="s">
         <v>44</v>
@@ -22953,7 +22964,7 @@
         <v>4</v>
       </c>
       <c r="J216" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K216" t="s">
         <v>45</v>
@@ -23045,7 +23056,7 @@
         <v>35</v>
       </c>
       <c r="F217" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G217" t="s">
         <v>44</v>
@@ -23063,7 +23074,7 @@
         <v>45</v>
       </c>
       <c r="L217" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M217" t="s">
         <v>41</v>
@@ -23167,7 +23178,7 @@
         <v>45</v>
       </c>
       <c r="L218" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M218" t="s">
         <v>41</v>
@@ -23244,7 +23255,7 @@
         <v>33</v>
       </c>
       <c r="C219" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D219">
         <v>18</v>
@@ -23253,7 +23264,7 @@
         <v>35</v>
       </c>
       <c r="F219" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G219" t="s">
         <v>44</v>
@@ -23265,13 +23276,13 @@
         <v>3</v>
       </c>
       <c r="J219" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K219" t="s">
         <v>28</v>
       </c>
       <c r="L219" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M219" t="s">
         <v>46</v>
@@ -23375,7 +23386,7 @@
         <v>45</v>
       </c>
       <c r="L220" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M220" t="s">
         <v>46</v>
@@ -23562,7 +23573,7 @@
         <v>17</v>
       </c>
       <c r="E222" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F222" t="s">
         <v>36</v>
@@ -23580,10 +23591,10 @@
         <v>38</v>
       </c>
       <c r="K222" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L222" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M222" t="s">
         <v>41</v>
@@ -23687,7 +23698,7 @@
         <v>45</v>
       </c>
       <c r="L223" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M223" t="s">
         <v>41</v>
@@ -23785,7 +23796,7 @@
         <v>3</v>
       </c>
       <c r="J224" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K224" t="s">
         <v>39</v>
@@ -23868,7 +23879,7 @@
         <v>33</v>
       </c>
       <c r="C225" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D225">
         <v>18</v>
@@ -23895,7 +23906,7 @@
         <v>45</v>
       </c>
       <c r="L225" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M225" t="s">
         <v>41</v>
@@ -23996,10 +24007,10 @@
         <v>39</v>
       </c>
       <c r="K226" t="s">
+        <v>48</v>
+      </c>
+      <c r="L226" t="s">
         <v>49</v>
-      </c>
-      <c r="L226" t="s">
-        <v>50</v>
       </c>
       <c r="M226" t="s">
         <v>41</v>
@@ -24082,7 +24093,7 @@
         <v>18</v>
       </c>
       <c r="E227" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F227" t="s">
         <v>36</v>
@@ -24103,7 +24114,7 @@
         <v>45</v>
       </c>
       <c r="L227" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M227" t="s">
         <v>41</v>
@@ -24284,7 +24295,7 @@
         <v>33</v>
       </c>
       <c r="C229" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D229">
         <v>17</v>
@@ -24293,7 +24304,7 @@
         <v>35</v>
       </c>
       <c r="F229" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G229" t="s">
         <v>44</v>
@@ -24305,13 +24316,13 @@
         <v>3</v>
       </c>
       <c r="J229" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K229" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L229" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M229" t="s">
         <v>46</v>
@@ -24388,7 +24399,7 @@
         <v>33</v>
       </c>
       <c r="C230" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D230">
         <v>18</v>
@@ -24397,7 +24408,7 @@
         <v>35</v>
       </c>
       <c r="F230" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G230" t="s">
         <v>44</v>
@@ -24605,7 +24616,7 @@
         <v>35</v>
       </c>
       <c r="F232" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G232" t="s">
         <v>44</v>
@@ -24623,7 +24634,7 @@
         <v>45</v>
       </c>
       <c r="L232" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M232" t="s">
         <v>46</v>
@@ -24700,13 +24711,13 @@
         <v>33</v>
       </c>
       <c r="C233" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D233">
         <v>17</v>
       </c>
       <c r="E233" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F233" t="s">
         <v>36</v>
@@ -24804,7 +24815,7 @@
         <v>33</v>
       </c>
       <c r="C234" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D234">
         <v>17</v>
@@ -24831,7 +24842,7 @@
         <v>39</v>
       </c>
       <c r="L234" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M234" t="s">
         <v>41</v>
@@ -24908,7 +24919,7 @@
         <v>33</v>
       </c>
       <c r="C235" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D235">
         <v>16</v>
@@ -24935,7 +24946,7 @@
         <v>45</v>
       </c>
       <c r="L235" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M235" t="s">
         <v>46</v>
@@ -25012,7 +25023,7 @@
         <v>33</v>
       </c>
       <c r="C236" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D236">
         <v>16</v>
@@ -25021,7 +25032,7 @@
         <v>35</v>
       </c>
       <c r="F236" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G236" t="s">
         <v>44</v>
@@ -25039,7 +25050,7 @@
         <v>45</v>
       </c>
       <c r="L236" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M236" t="s">
         <v>41</v>
@@ -25116,7 +25127,7 @@
         <v>33</v>
       </c>
       <c r="C237" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D237">
         <v>16</v>
@@ -25143,7 +25154,7 @@
         <v>45</v>
       </c>
       <c r="L237" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M237" t="s">
         <v>41</v>
@@ -25220,7 +25231,7 @@
         <v>33</v>
       </c>
       <c r="C238" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D238">
         <v>17</v>
@@ -25229,7 +25240,7 @@
         <v>35</v>
       </c>
       <c r="F238" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G238" t="s">
         <v>44</v>
@@ -25247,7 +25258,7 @@
         <v>45</v>
       </c>
       <c r="L238" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M238" t="s">
         <v>46</v>
@@ -25351,7 +25362,7 @@
         <v>45</v>
       </c>
       <c r="L239" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M239" t="s">
         <v>41</v>
@@ -25434,7 +25445,7 @@
         <v>17</v>
       </c>
       <c r="E240" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F240" t="s">
         <v>36</v>
@@ -25452,7 +25463,7 @@
         <v>38</v>
       </c>
       <c r="K240" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L240" t="s">
         <v>40</v>
@@ -25532,7 +25543,7 @@
         <v>33</v>
       </c>
       <c r="C241" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D241">
         <v>18</v>
@@ -25556,10 +25567,10 @@
         <v>45</v>
       </c>
       <c r="K241" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L241" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M241" t="s">
         <v>46</v>
@@ -25636,7 +25647,7 @@
         <v>33</v>
       </c>
       <c r="C242" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D242">
         <v>17</v>
@@ -25645,7 +25656,7 @@
         <v>35</v>
       </c>
       <c r="F242" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G242" t="s">
         <v>44</v>
@@ -25740,16 +25751,16 @@
         <v>33</v>
       </c>
       <c r="C243" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D243">
         <v>17</v>
       </c>
       <c r="E243" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F243" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G243" t="s">
         <v>37</v>
@@ -25844,7 +25855,7 @@
         <v>33</v>
       </c>
       <c r="C244" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D244">
         <v>16</v>
@@ -25853,7 +25864,7 @@
         <v>35</v>
       </c>
       <c r="F244" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G244" t="s">
         <v>44</v>
@@ -25948,7 +25959,7 @@
         <v>33</v>
       </c>
       <c r="C245" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D245">
         <v>16</v>
@@ -25969,10 +25980,10 @@
         <v>4</v>
       </c>
       <c r="J245" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K245" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L245" t="s">
         <v>40</v>
@@ -26156,7 +26167,7 @@
         <v>33</v>
       </c>
       <c r="C247" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D247">
         <v>16</v>
@@ -26260,7 +26271,7 @@
         <v>33</v>
       </c>
       <c r="C248" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D248">
         <v>17</v>
@@ -26364,7 +26375,7 @@
         <v>33</v>
       </c>
       <c r="C249" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D249">
         <v>22</v>
@@ -26385,10 +26396,10 @@
         <v>1</v>
       </c>
       <c r="J249" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K249" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L249" t="s">
         <v>45</v>
@@ -26468,16 +26479,16 @@
         <v>33</v>
       </c>
       <c r="C250" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D250">
         <v>18</v>
       </c>
       <c r="E250" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F250" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G250" t="s">
         <v>44</v>
@@ -26492,7 +26503,7 @@
         <v>45</v>
       </c>
       <c r="K250" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L250" t="s">
         <v>40</v>
@@ -26572,7 +26583,7 @@
         <v>33</v>
       </c>
       <c r="C251" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D251">
         <v>16</v>
@@ -26676,7 +26687,7 @@
         <v>33</v>
       </c>
       <c r="C252" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D252">
         <v>18</v>
@@ -26697,7 +26708,7 @@
         <v>2</v>
       </c>
       <c r="J252" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K252" t="s">
         <v>45</v>
@@ -26780,7 +26791,7 @@
         <v>33</v>
       </c>
       <c r="C253" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D253">
         <v>16</v>
@@ -26807,7 +26818,7 @@
         <v>45</v>
       </c>
       <c r="L253" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M253" t="s">
         <v>45</v>
@@ -26884,7 +26895,7 @@
         <v>33</v>
       </c>
       <c r="C254" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D254">
         <v>18</v>
@@ -26905,10 +26916,10 @@
         <v>1</v>
       </c>
       <c r="J254" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K254" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L254" t="s">
         <v>45</v>
@@ -26988,13 +26999,13 @@
         <v>33</v>
       </c>
       <c r="C255" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D255">
         <v>16</v>
       </c>
       <c r="E255" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F255" t="s">
         <v>36</v>
@@ -27092,13 +27103,13 @@
         <v>33</v>
       </c>
       <c r="C256" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D256">
         <v>17</v>
       </c>
       <c r="E256" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F256" t="s">
         <v>36</v>
@@ -27196,7 +27207,7 @@
         <v>33</v>
       </c>
       <c r="C257" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D257">
         <v>17</v>
@@ -27205,7 +27216,7 @@
         <v>35</v>
       </c>
       <c r="F257" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G257" t="s">
         <v>44</v>
@@ -27309,7 +27320,7 @@
         <v>35</v>
       </c>
       <c r="F258" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G258" t="s">
         <v>44</v>
@@ -27324,10 +27335,10 @@
         <v>39</v>
       </c>
       <c r="K258" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L258" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M258" t="s">
         <v>41</v>
@@ -27404,7 +27415,7 @@
         <v>33</v>
       </c>
       <c r="C259" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D259">
         <v>19</v>
@@ -27413,7 +27424,7 @@
         <v>35</v>
       </c>
       <c r="F259" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G259" t="s">
         <v>37</v>
@@ -27425,13 +27436,13 @@
         <v>3</v>
       </c>
       <c r="J259" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K259" t="s">
         <v>38</v>
       </c>
       <c r="L259" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M259" t="s">
         <v>41</v>
@@ -27508,7 +27519,7 @@
         <v>33</v>
       </c>
       <c r="C260" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D260">
         <v>18</v>
@@ -27535,7 +27546,7 @@
         <v>45</v>
       </c>
       <c r="L260" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M260" t="s">
         <v>41</v>
@@ -27621,7 +27632,7 @@
         <v>35</v>
       </c>
       <c r="F261" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G261" t="s">
         <v>44</v>
@@ -27633,10 +27644,10 @@
         <v>2</v>
       </c>
       <c r="J261" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K261" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L261" t="s">
         <v>40</v>
@@ -27737,13 +27748,13 @@
         <v>3</v>
       </c>
       <c r="J262" t="s">
+        <v>48</v>
+      </c>
+      <c r="K262" t="s">
+        <v>45</v>
+      </c>
+      <c r="L262" t="s">
         <v>49</v>
-      </c>
-      <c r="K262" t="s">
-        <v>45</v>
-      </c>
-      <c r="L262" t="s">
-        <v>50</v>
       </c>
       <c r="M262" t="s">
         <v>46</v>
@@ -27820,7 +27831,7 @@
         <v>33</v>
       </c>
       <c r="C263" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D263">
         <v>18</v>
@@ -27924,13 +27935,13 @@
         <v>33</v>
       </c>
       <c r="C264" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D264">
         <v>18</v>
       </c>
       <c r="E264" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F264" t="s">
         <v>36</v>
@@ -28055,7 +28066,7 @@
         <v>45</v>
       </c>
       <c r="L265" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M265" t="s">
         <v>41</v>
@@ -28156,10 +28167,10 @@
         <v>38</v>
       </c>
       <c r="K266" t="s">
+        <v>48</v>
+      </c>
+      <c r="L266" t="s">
         <v>49</v>
-      </c>
-      <c r="L266" t="s">
-        <v>50</v>
       </c>
       <c r="M266" t="s">
         <v>41</v>
@@ -28236,16 +28247,16 @@
         <v>33</v>
       </c>
       <c r="C267" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D267">
         <v>18</v>
       </c>
       <c r="E267" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F267" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G267" t="s">
         <v>37</v>
@@ -28263,7 +28274,7 @@
         <v>45</v>
       </c>
       <c r="L267" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M267" t="s">
         <v>41</v>
@@ -28340,7 +28351,7 @@
         <v>33</v>
       </c>
       <c r="C268" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D268">
         <v>17</v>
@@ -28361,7 +28372,7 @@
         <v>1</v>
       </c>
       <c r="J268" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K268" t="s">
         <v>45</v>
@@ -28450,7 +28461,7 @@
         <v>18</v>
       </c>
       <c r="E269" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F269" t="s">
         <v>36</v>
@@ -28471,7 +28482,7 @@
         <v>45</v>
       </c>
       <c r="L269" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M269" t="s">
         <v>41</v>
@@ -28548,7 +28559,7 @@
         <v>33</v>
       </c>
       <c r="C270" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D270">
         <v>18</v>
@@ -28575,7 +28586,7 @@
         <v>45</v>
       </c>
       <c r="L270" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M270" t="s">
         <v>46</v>
@@ -28658,7 +28669,7 @@
         <v>18</v>
       </c>
       <c r="E271" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F271" t="s">
         <v>36</v>
@@ -28679,7 +28690,7 @@
         <v>45</v>
       </c>
       <c r="L271" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M271" t="s">
         <v>41</v>
@@ -28780,10 +28791,10 @@
         <v>45</v>
       </c>
       <c r="K272" t="s">
+        <v>48</v>
+      </c>
+      <c r="L272" t="s">
         <v>49</v>
-      </c>
-      <c r="L272" t="s">
-        <v>50</v>
       </c>
       <c r="M272" t="s">
         <v>45</v>
@@ -28884,10 +28895,10 @@
         <v>45</v>
       </c>
       <c r="K273" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L273" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M273" t="s">
         <v>46</v>
@@ -28973,7 +28984,7 @@
         <v>35</v>
       </c>
       <c r="F274" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G274" t="s">
         <v>44</v>
@@ -28991,7 +29002,7 @@
         <v>45</v>
       </c>
       <c r="L274" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M274" t="s">
         <v>41</v>
@@ -29068,13 +29079,13 @@
         <v>33</v>
       </c>
       <c r="C275" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D275">
         <v>17</v>
       </c>
       <c r="E275" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F275" t="s">
         <v>36</v>
@@ -29095,7 +29106,7 @@
         <v>38</v>
       </c>
       <c r="L275" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M275" t="s">
         <v>41</v>
@@ -29199,7 +29210,7 @@
         <v>28</v>
       </c>
       <c r="L276" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M276" t="s">
         <v>41</v>
@@ -29285,7 +29296,7 @@
         <v>35</v>
       </c>
       <c r="F277" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G277" t="s">
         <v>44</v>
@@ -29297,7 +29308,7 @@
         <v>2</v>
       </c>
       <c r="J277" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K277" t="s">
         <v>45</v>
@@ -29386,7 +29397,7 @@
         <v>18</v>
       </c>
       <c r="E278" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F278" t="s">
         <v>36</v>
@@ -29404,10 +29415,10 @@
         <v>45</v>
       </c>
       <c r="K278" t="s">
+        <v>48</v>
+      </c>
+      <c r="L278" t="s">
         <v>49</v>
-      </c>
-      <c r="L278" t="s">
-        <v>50</v>
       </c>
       <c r="M278" t="s">
         <v>41</v>
@@ -29484,7 +29495,7 @@
         <v>33</v>
       </c>
       <c r="C279" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D279">
         <v>18</v>
@@ -29508,10 +29519,10 @@
         <v>39</v>
       </c>
       <c r="K279" t="s">
+        <v>48</v>
+      </c>
+      <c r="L279" t="s">
         <v>49</v>
-      </c>
-      <c r="L279" t="s">
-        <v>50</v>
       </c>
       <c r="M279" t="s">
         <v>41</v>
@@ -29615,7 +29626,7 @@
         <v>28</v>
       </c>
       <c r="L280" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M280" t="s">
         <v>46</v>
@@ -29692,7 +29703,7 @@
         <v>33</v>
       </c>
       <c r="C281" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D281">
         <v>18</v>
@@ -29701,7 +29712,7 @@
         <v>35</v>
       </c>
       <c r="F281" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G281" t="s">
         <v>44</v>
@@ -29716,7 +29727,7 @@
         <v>39</v>
       </c>
       <c r="K281" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L281" t="s">
         <v>40</v>
@@ -29796,7 +29807,7 @@
         <v>33</v>
       </c>
       <c r="C282" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D282">
         <v>17</v>
@@ -29805,7 +29816,7 @@
         <v>35</v>
       </c>
       <c r="F282" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G282" t="s">
         <v>37</v>
@@ -29817,13 +29828,13 @@
         <v>1</v>
       </c>
       <c r="J282" t="s">
+        <v>48</v>
+      </c>
+      <c r="K282" t="s">
+        <v>45</v>
+      </c>
+      <c r="L282" t="s">
         <v>49</v>
-      </c>
-      <c r="K282" t="s">
-        <v>45</v>
-      </c>
-      <c r="L282" t="s">
-        <v>50</v>
       </c>
       <c r="M282" t="s">
         <v>41</v>
@@ -29900,7 +29911,7 @@
         <v>33</v>
       </c>
       <c r="C283" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D283">
         <v>17</v>
@@ -29909,7 +29920,7 @@
         <v>35</v>
       </c>
       <c r="F283" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G283" t="s">
         <v>37</v>
@@ -29924,10 +29935,10 @@
         <v>39</v>
       </c>
       <c r="K283" t="s">
+        <v>48</v>
+      </c>
+      <c r="L283" t="s">
         <v>49</v>
-      </c>
-      <c r="L283" t="s">
-        <v>50</v>
       </c>
       <c r="M283" t="s">
         <v>41</v>
@@ -30010,10 +30021,10 @@
         <v>18</v>
       </c>
       <c r="E284" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F284" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G284" t="s">
         <v>44</v>
@@ -30031,7 +30042,7 @@
         <v>45</v>
       </c>
       <c r="L284" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M284" t="s">
         <v>41</v>
@@ -30135,7 +30146,7 @@
         <v>45</v>
       </c>
       <c r="L285" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M285" t="s">
         <v>41</v>
@@ -30316,7 +30327,7 @@
         <v>33</v>
       </c>
       <c r="C287" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D287">
         <v>17</v>
@@ -30343,7 +30354,7 @@
         <v>45</v>
       </c>
       <c r="L287" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M287" t="s">
         <v>46</v>
@@ -30545,13 +30556,13 @@
         <v>1</v>
       </c>
       <c r="J289" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K289" t="s">
         <v>39</v>
       </c>
       <c r="L289" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M289" t="s">
         <v>41</v>
@@ -30628,7 +30639,7 @@
         <v>33</v>
       </c>
       <c r="C290" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D290">
         <v>18</v>
@@ -30649,13 +30660,13 @@
         <v>1</v>
       </c>
       <c r="J290" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K290" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L290" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M290" t="s">
         <v>41</v>
@@ -30732,7 +30743,7 @@
         <v>33</v>
       </c>
       <c r="C291" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D291">
         <v>18</v>
@@ -30741,7 +30752,7 @@
         <v>35</v>
       </c>
       <c r="F291" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G291" t="s">
         <v>37</v>
@@ -30759,7 +30770,7 @@
         <v>39</v>
       </c>
       <c r="L291" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M291" t="s">
         <v>41</v>
@@ -30836,7 +30847,7 @@
         <v>33</v>
       </c>
       <c r="C292" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D292">
         <v>18</v>
@@ -30863,7 +30874,7 @@
         <v>45</v>
       </c>
       <c r="L292" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M292" t="s">
         <v>41</v>
@@ -30964,10 +30975,10 @@
         <v>28</v>
       </c>
       <c r="K293" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L293" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M293" t="s">
         <v>41</v>
@@ -31053,7 +31064,7 @@
         <v>35</v>
       </c>
       <c r="F294" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G294" t="s">
         <v>44</v>
@@ -31065,13 +31076,13 @@
         <v>1</v>
       </c>
       <c r="J294" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K294" t="s">
         <v>38</v>
       </c>
       <c r="L294" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M294" t="s">
         <v>41</v>
@@ -31154,10 +31165,10 @@
         <v>17</v>
       </c>
       <c r="E295" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F295" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G295" t="s">
         <v>44</v>
@@ -31169,13 +31180,13 @@
         <v>1</v>
       </c>
       <c r="J295" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K295" t="s">
         <v>45</v>
       </c>
       <c r="L295" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M295" t="s">
         <v>41</v>
@@ -31252,16 +31263,16 @@
         <v>33</v>
       </c>
       <c r="C296" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D296">
         <v>18</v>
       </c>
       <c r="E296" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F296" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G296" t="s">
         <v>44</v>
@@ -31273,13 +31284,13 @@
         <v>2</v>
       </c>
       <c r="J296" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K296" t="s">
         <v>45</v>
       </c>
       <c r="L296" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M296" t="s">
         <v>41</v>
@@ -31356,7 +31367,7 @@
         <v>33</v>
       </c>
       <c r="C297" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D297">
         <v>17</v>
@@ -31383,7 +31394,7 @@
         <v>45</v>
       </c>
       <c r="L297" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M297" t="s">
         <v>41</v>
@@ -31487,7 +31498,7 @@
         <v>45</v>
       </c>
       <c r="L298" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M298" t="s">
         <v>45</v>
@@ -31573,7 +31584,7 @@
         <v>35</v>
       </c>
       <c r="F299" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G299" t="s">
         <v>44</v>
@@ -31591,7 +31602,7 @@
         <v>45</v>
       </c>
       <c r="L299" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M299" t="s">
         <v>45</v>
@@ -31695,7 +31706,7 @@
         <v>45</v>
       </c>
       <c r="L300" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M300" t="s">
         <v>46</v>
@@ -31772,7 +31783,7 @@
         <v>33</v>
       </c>
       <c r="C301" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D301">
         <v>18</v>
@@ -31781,7 +31792,7 @@
         <v>35</v>
       </c>
       <c r="F301" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G301" t="s">
         <v>44</v>
@@ -31799,7 +31810,7 @@
         <v>39</v>
       </c>
       <c r="L301" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M301" t="s">
         <v>41</v>
@@ -31885,7 +31896,7 @@
         <v>35</v>
       </c>
       <c r="F302" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G302" t="s">
         <v>37</v>
@@ -31903,7 +31914,7 @@
         <v>45</v>
       </c>
       <c r="L302" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M302" t="s">
         <v>41</v>
@@ -31980,7 +31991,7 @@
         <v>33</v>
       </c>
       <c r="C303" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D303">
         <v>17</v>
@@ -31989,7 +32000,7 @@
         <v>35</v>
       </c>
       <c r="F303" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G303" t="s">
         <v>44</v>
@@ -32007,7 +32018,7 @@
         <v>39</v>
       </c>
       <c r="L303" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M303" t="s">
         <v>46</v>
@@ -32111,7 +32122,7 @@
         <v>45</v>
       </c>
       <c r="L304" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M304" t="s">
         <v>41</v>
@@ -32215,7 +32226,7 @@
         <v>28</v>
       </c>
       <c r="L305" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M305" t="s">
         <v>46</v>
@@ -32292,7 +32303,7 @@
         <v>33</v>
       </c>
       <c r="C306" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D306">
         <v>19</v>
@@ -32319,7 +32330,7 @@
         <v>45</v>
       </c>
       <c r="L306" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M306" t="s">
         <v>45</v>
@@ -32417,13 +32428,13 @@
         <v>4</v>
       </c>
       <c r="J307" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K307" t="s">
         <v>38</v>
       </c>
       <c r="L307" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M307" t="s">
         <v>45</v>
@@ -32500,7 +32511,7 @@
         <v>33</v>
       </c>
       <c r="C308" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D308">
         <v>20</v>
@@ -32521,7 +32532,7 @@
         <v>2</v>
       </c>
       <c r="J308" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K308" t="s">
         <v>45</v>
@@ -32604,7 +32615,7 @@
         <v>33</v>
       </c>
       <c r="C309" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D309">
         <v>19</v>
@@ -32628,10 +32639,10 @@
         <v>39</v>
       </c>
       <c r="K309" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L309" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M309" t="s">
         <v>45</v>
@@ -32708,13 +32719,13 @@
         <v>33</v>
       </c>
       <c r="C310" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D310">
         <v>19</v>
       </c>
       <c r="E310" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F310" t="s">
         <v>36</v>
@@ -32732,10 +32743,10 @@
         <v>45</v>
       </c>
       <c r="K310" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L310" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M310" t="s">
         <v>46</v>
@@ -32821,7 +32832,7 @@
         <v>35</v>
       </c>
       <c r="F311" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G311" t="s">
         <v>44</v>
@@ -32839,7 +32850,7 @@
         <v>45</v>
       </c>
       <c r="L311" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M311" t="s">
         <v>45</v>
@@ -32925,7 +32936,7 @@
         <v>35</v>
       </c>
       <c r="F312" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G312" t="s">
         <v>44</v>
@@ -32937,13 +32948,13 @@
         <v>2</v>
       </c>
       <c r="J312" t="s">
+        <v>48</v>
+      </c>
+      <c r="K312" t="s">
+        <v>48</v>
+      </c>
+      <c r="L312" t="s">
         <v>49</v>
-      </c>
-      <c r="K312" t="s">
-        <v>49</v>
-      </c>
-      <c r="L312" t="s">
-        <v>50</v>
       </c>
       <c r="M312" t="s">
         <v>45</v>
@@ -33124,7 +33135,7 @@
         <v>33</v>
       </c>
       <c r="C314" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D314">
         <v>19</v>
@@ -33148,7 +33159,7 @@
         <v>45</v>
       </c>
       <c r="K314" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L314" t="s">
         <v>40</v>
@@ -33237,7 +33248,7 @@
         <v>35</v>
       </c>
       <c r="F315" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G315" t="s">
         <v>44</v>
@@ -33249,13 +33260,13 @@
         <v>2</v>
       </c>
       <c r="J315" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K315" t="s">
         <v>45</v>
       </c>
       <c r="L315" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M315" t="s">
         <v>45</v>
@@ -33359,7 +33370,7 @@
         <v>28</v>
       </c>
       <c r="L316" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M316" t="s">
         <v>45</v>
@@ -33442,7 +33453,7 @@
         <v>19</v>
       </c>
       <c r="E317" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F317" t="s">
         <v>36</v>
@@ -33463,7 +33474,7 @@
         <v>45</v>
       </c>
       <c r="L317" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M317" t="s">
         <v>45</v>
@@ -33561,7 +33572,7 @@
         <v>1</v>
       </c>
       <c r="J318" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K318" t="s">
         <v>45</v>
@@ -33754,7 +33765,7 @@
         <v>17</v>
       </c>
       <c r="E320" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F320" t="s">
         <v>36</v>
@@ -33772,7 +33783,7 @@
         <v>38</v>
       </c>
       <c r="K320" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L320" t="s">
         <v>40</v>
@@ -33977,10 +33988,10 @@
         <v>3</v>
       </c>
       <c r="J322" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K322" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L322" t="s">
         <v>40</v>
@@ -34170,10 +34181,10 @@
         <v>17</v>
       </c>
       <c r="E324" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F324" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G324" t="s">
         <v>44</v>
@@ -34185,10 +34196,10 @@
         <v>2</v>
       </c>
       <c r="J324" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K324" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L324" t="s">
         <v>40</v>
@@ -34289,10 +34300,10 @@
         <v>1</v>
       </c>
       <c r="J325" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K325" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L325" t="s">
         <v>40</v>
@@ -34381,7 +34392,7 @@
         <v>35</v>
       </c>
       <c r="F326" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G326" t="s">
         <v>44</v>
@@ -34399,7 +34410,7 @@
         <v>38</v>
       </c>
       <c r="L326" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M326" t="s">
         <v>46</v>
@@ -34476,7 +34487,7 @@
         <v>33</v>
       </c>
       <c r="C327" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D327">
         <v>18</v>
@@ -34580,7 +34591,7 @@
         <v>33</v>
       </c>
       <c r="C328" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D328">
         <v>17</v>
@@ -34604,10 +34615,10 @@
         <v>45</v>
       </c>
       <c r="K328" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L328" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M328" t="s">
         <v>41</v>
@@ -34684,13 +34695,13 @@
         <v>33</v>
       </c>
       <c r="C329" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D329">
         <v>17</v>
       </c>
       <c r="E329" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F329" t="s">
         <v>36</v>
@@ -34705,7 +34716,7 @@
         <v>2</v>
       </c>
       <c r="J329" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K329" t="s">
         <v>45</v>
@@ -34812,7 +34823,7 @@
         <v>39</v>
       </c>
       <c r="K330" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L330" t="s">
         <v>40</v>
@@ -34996,7 +35007,7 @@
         <v>33</v>
       </c>
       <c r="C332" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D332">
         <v>18</v>
@@ -35005,7 +35016,7 @@
         <v>35</v>
       </c>
       <c r="F332" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G332" t="s">
         <v>44</v>
@@ -35106,7 +35117,7 @@
         <v>17</v>
       </c>
       <c r="E333" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F333" t="s">
         <v>36</v>
@@ -35225,13 +35236,13 @@
         <v>3</v>
       </c>
       <c r="J334" t="s">
+        <v>48</v>
+      </c>
+      <c r="K334" t="s">
+        <v>48</v>
+      </c>
+      <c r="L334" t="s">
         <v>49</v>
-      </c>
-      <c r="K334" t="s">
-        <v>49</v>
-      </c>
-      <c r="L334" t="s">
-        <v>50</v>
       </c>
       <c r="M334" t="s">
         <v>41</v>
@@ -35317,7 +35328,7 @@
         <v>35</v>
       </c>
       <c r="F335" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G335" t="s">
         <v>44</v>
@@ -35335,7 +35346,7 @@
         <v>45</v>
       </c>
       <c r="L335" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M335" t="s">
         <v>45</v>
@@ -35418,7 +35429,7 @@
         <v>18</v>
       </c>
       <c r="E336" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F336" t="s">
         <v>36</v>
@@ -35537,7 +35548,7 @@
         <v>4</v>
       </c>
       <c r="J337" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K337" t="s">
         <v>45</v>
@@ -35626,7 +35637,7 @@
         <v>19</v>
       </c>
       <c r="E338" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F338" t="s">
         <v>36</v>
@@ -35641,13 +35652,13 @@
         <v>1</v>
       </c>
       <c r="J338" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K338" t="s">
         <v>38</v>
       </c>
       <c r="L338" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M338" t="s">
         <v>45</v>
@@ -35751,7 +35762,7 @@
         <v>45</v>
       </c>
       <c r="L339" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M339" t="s">
         <v>41</v>
@@ -35837,7 +35848,7 @@
         <v>35</v>
       </c>
       <c r="F340" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G340" t="s">
         <v>44</v>
@@ -35849,13 +35860,13 @@
         <v>3</v>
       </c>
       <c r="J340" t="s">
+        <v>48</v>
+      </c>
+      <c r="K340" t="s">
+        <v>48</v>
+      </c>
+      <c r="L340" t="s">
         <v>49</v>
-      </c>
-      <c r="K340" t="s">
-        <v>49</v>
-      </c>
-      <c r="L340" t="s">
-        <v>50</v>
       </c>
       <c r="M340" t="s">
         <v>41</v>
@@ -35938,7 +35949,7 @@
         <v>17</v>
       </c>
       <c r="E341" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F341" t="s">
         <v>36</v>
@@ -35959,7 +35970,7 @@
         <v>45</v>
       </c>
       <c r="L341" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M341" t="s">
         <v>41</v>
@@ -36057,13 +36068,13 @@
         <v>1</v>
       </c>
       <c r="J342" t="s">
+        <v>48</v>
+      </c>
+      <c r="K342" t="s">
+        <v>48</v>
+      </c>
+      <c r="L342" t="s">
         <v>49</v>
-      </c>
-      <c r="K342" t="s">
-        <v>49</v>
-      </c>
-      <c r="L342" t="s">
-        <v>50</v>
       </c>
       <c r="M342" t="s">
         <v>45</v>
@@ -36140,7 +36151,7 @@
         <v>33</v>
       </c>
       <c r="C343" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D343">
         <v>18</v>
@@ -36164,10 +36175,10 @@
         <v>39</v>
       </c>
       <c r="K343" t="s">
+        <v>48</v>
+      </c>
+      <c r="L343" t="s">
         <v>49</v>
-      </c>
-      <c r="L343" t="s">
-        <v>50</v>
       </c>
       <c r="M343" t="s">
         <v>46</v>
@@ -36244,7 +36255,7 @@
         <v>33</v>
       </c>
       <c r="C344" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D344">
         <v>18</v>
@@ -36253,7 +36264,7 @@
         <v>35</v>
       </c>
       <c r="F344" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G344" t="s">
         <v>44</v>
@@ -36265,13 +36276,13 @@
         <v>4</v>
       </c>
       <c r="J344" t="s">
+        <v>48</v>
+      </c>
+      <c r="K344" t="s">
+        <v>45</v>
+      </c>
+      <c r="L344" t="s">
         <v>49</v>
-      </c>
-      <c r="K344" t="s">
-        <v>45</v>
-      </c>
-      <c r="L344" t="s">
-        <v>50</v>
       </c>
       <c r="M344" t="s">
         <v>41</v>
@@ -36375,7 +36386,7 @@
         <v>38</v>
       </c>
       <c r="L345" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M345" t="s">
         <v>46</v>
@@ -36580,7 +36591,7 @@
         <v>45</v>
       </c>
       <c r="K347" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L347" t="s">
         <v>45</v>
@@ -36660,13 +36671,13 @@
         <v>33</v>
       </c>
       <c r="C348" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D348">
         <v>18</v>
       </c>
       <c r="E348" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F348" t="s">
         <v>36</v>
@@ -36684,7 +36695,7 @@
         <v>39</v>
       </c>
       <c r="K348" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L348" t="s">
         <v>40</v>
@@ -36764,7 +36775,7 @@
         <v>33</v>
       </c>
       <c r="C349" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D349">
         <v>18</v>
@@ -36895,7 +36906,7 @@
         <v>45</v>
       </c>
       <c r="L350" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M350" t="s">
         <v>41</v>
@@ -36969,16 +36980,16 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C351" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D351">
         <v>18</v>
       </c>
       <c r="E351" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F351" t="s">
         <v>36</v>
@@ -37073,16 +37084,16 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C352" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D352">
         <v>19</v>
       </c>
       <c r="E352" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F352" t="s">
         <v>36</v>
@@ -37100,10 +37111,10 @@
         <v>45</v>
       </c>
       <c r="K352" t="s">
+        <v>48</v>
+      </c>
+      <c r="L352" t="s">
         <v>49</v>
-      </c>
-      <c r="L352" t="s">
-        <v>50</v>
       </c>
       <c r="M352" t="s">
         <v>45</v>
@@ -37177,10 +37188,10 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C353" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D353">
         <v>17</v>
@@ -37281,10 +37292,10 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C354" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D354">
         <v>18</v>
@@ -37293,7 +37304,7 @@
         <v>35</v>
       </c>
       <c r="F354" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G354" t="s">
         <v>44</v>
@@ -37308,7 +37319,7 @@
         <v>38</v>
       </c>
       <c r="K354" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L354" t="s">
         <v>40</v>
@@ -37385,16 +37396,16 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C355" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D355">
         <v>19</v>
       </c>
       <c r="E355" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F355" t="s">
         <v>36</v>
@@ -37415,7 +37426,7 @@
         <v>45</v>
       </c>
       <c r="L355" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M355" t="s">
         <v>45</v>
@@ -37489,16 +37500,16 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C356" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D356">
         <v>17</v>
       </c>
       <c r="E356" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F356" t="s">
         <v>36</v>
@@ -37513,13 +37524,13 @@
         <v>3</v>
       </c>
       <c r="J356" t="s">
+        <v>48</v>
+      </c>
+      <c r="K356" t="s">
+        <v>45</v>
+      </c>
+      <c r="L356" t="s">
         <v>49</v>
-      </c>
-      <c r="K356" t="s">
-        <v>45</v>
-      </c>
-      <c r="L356" t="s">
-        <v>50</v>
       </c>
       <c r="M356" t="s">
         <v>41</v>
@@ -37593,7 +37604,7 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C357" t="s">
         <v>34</v>
@@ -37617,10 +37628,10 @@
         <v>3</v>
       </c>
       <c r="J357" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K357" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L357" t="s">
         <v>40</v>
@@ -37697,7 +37708,7 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C358" t="s">
         <v>34</v>
@@ -37706,7 +37717,7 @@
         <v>17</v>
       </c>
       <c r="E358" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F358" t="s">
         <v>36</v>
@@ -37724,7 +37735,7 @@
         <v>39</v>
       </c>
       <c r="K358" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L358" t="s">
         <v>45</v>
@@ -37801,7 +37812,7 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C359" t="s">
         <v>34</v>
@@ -37813,7 +37824,7 @@
         <v>35</v>
       </c>
       <c r="F359" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G359" t="s">
         <v>37</v>
@@ -37825,13 +37836,13 @@
         <v>2</v>
       </c>
       <c r="J359" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K359" t="s">
         <v>45</v>
       </c>
       <c r="L359" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M359" t="s">
         <v>41</v>
@@ -37905,10 +37916,10 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C360" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D360">
         <v>18</v>
@@ -37917,7 +37928,7 @@
         <v>35</v>
       </c>
       <c r="F360" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G360" t="s">
         <v>44</v>
@@ -37932,10 +37943,10 @@
         <v>45</v>
       </c>
       <c r="K360" t="s">
+        <v>48</v>
+      </c>
+      <c r="L360" t="s">
         <v>49</v>
-      </c>
-      <c r="L360" t="s">
-        <v>50</v>
       </c>
       <c r="M360" t="s">
         <v>46</v>
@@ -38009,7 +38020,7 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C361" t="s">
         <v>34</v>
@@ -38021,7 +38032,7 @@
         <v>35</v>
       </c>
       <c r="F361" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G361" t="s">
         <v>44</v>
@@ -38036,7 +38047,7 @@
         <v>38</v>
       </c>
       <c r="K361" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L361" t="s">
         <v>40</v>
@@ -38113,7 +38124,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C362" t="s">
         <v>34</v>
@@ -38122,10 +38133,10 @@
         <v>18</v>
       </c>
       <c r="E362" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F362" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G362" t="s">
         <v>37</v>
@@ -38217,19 +38228,19 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C363" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D363">
         <v>18</v>
       </c>
       <c r="E363" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F363" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G363" t="s">
         <v>44</v>
@@ -38321,7 +38332,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C364" t="s">
         <v>34</v>
@@ -38345,10 +38356,10 @@
         <v>3</v>
       </c>
       <c r="J364" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K364" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L364" t="s">
         <v>45</v>
@@ -38425,7 +38436,7 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C365" t="s">
         <v>34</v>
@@ -38437,7 +38448,7 @@
         <v>35</v>
       </c>
       <c r="F365" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G365" t="s">
         <v>44</v>
@@ -38529,7 +38540,7 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C366" t="s">
         <v>34</v>
@@ -38538,7 +38549,7 @@
         <v>17</v>
       </c>
       <c r="E366" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F366" t="s">
         <v>36</v>
@@ -38556,7 +38567,7 @@
         <v>45</v>
       </c>
       <c r="K366" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L366" t="s">
         <v>40</v>
@@ -38633,16 +38644,16 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C367" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D367">
         <v>18</v>
       </c>
       <c r="E367" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F367" t="s">
         <v>36</v>
@@ -38737,10 +38748,10 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C368" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D368">
         <v>18</v>
@@ -38749,7 +38760,7 @@
         <v>35</v>
       </c>
       <c r="F368" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G368" t="s">
         <v>44</v>
@@ -38764,7 +38775,7 @@
         <v>39</v>
       </c>
       <c r="K368" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L368" t="s">
         <v>45</v>
@@ -38841,7 +38852,7 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C369" t="s">
         <v>34</v>
@@ -38850,7 +38861,7 @@
         <v>17</v>
       </c>
       <c r="E369" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F369" t="s">
         <v>36</v>
@@ -38868,10 +38879,10 @@
         <v>45</v>
       </c>
       <c r="K369" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L369" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M369" t="s">
         <v>41</v>
@@ -38945,7 +38956,7 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C370" t="s">
         <v>34</v>
@@ -38972,7 +38983,7 @@
         <v>38</v>
       </c>
       <c r="K370" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L370" t="s">
         <v>40</v>
@@ -39049,7 +39060,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C371" t="s">
         <v>34</v>
@@ -39058,7 +39069,7 @@
         <v>18</v>
       </c>
       <c r="E371" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F371" t="s">
         <v>36</v>
@@ -39153,7 +39164,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C372" t="s">
         <v>34</v>
@@ -39165,7 +39176,7 @@
         <v>35</v>
       </c>
       <c r="F372" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G372" t="s">
         <v>44</v>
@@ -39177,13 +39188,13 @@
         <v>2</v>
       </c>
       <c r="J372" t="s">
+        <v>48</v>
+      </c>
+      <c r="K372" t="s">
+        <v>48</v>
+      </c>
+      <c r="L372" t="s">
         <v>49</v>
-      </c>
-      <c r="K372" t="s">
-        <v>49</v>
-      </c>
-      <c r="L372" t="s">
-        <v>50</v>
       </c>
       <c r="M372" t="s">
         <v>45</v>
@@ -39257,19 +39268,19 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C373" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D373">
         <v>18</v>
       </c>
       <c r="E373" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F373" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G373" t="s">
         <v>44</v>
@@ -39284,7 +39295,7 @@
         <v>38</v>
       </c>
       <c r="K373" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L373" t="s">
         <v>45</v>
@@ -39361,7 +39372,7 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C374" t="s">
         <v>34</v>
@@ -39391,7 +39402,7 @@
         <v>38</v>
       </c>
       <c r="L374" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M374" t="s">
         <v>41</v>
@@ -39465,7 +39476,7 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C375" t="s">
         <v>34</v>
@@ -39474,7 +39485,7 @@
         <v>17</v>
       </c>
       <c r="E375" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F375" t="s">
         <v>36</v>
@@ -39569,7 +39580,7 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C376" t="s">
         <v>34</v>
@@ -39578,10 +39589,10 @@
         <v>18</v>
       </c>
       <c r="E376" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F376" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G376" t="s">
         <v>44</v>
@@ -39599,7 +39610,7 @@
         <v>45</v>
       </c>
       <c r="L376" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M376" t="s">
         <v>41</v>
@@ -39673,7 +39684,7 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C377" t="s">
         <v>34</v>
@@ -39682,7 +39693,7 @@
         <v>18</v>
       </c>
       <c r="E377" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F377" t="s">
         <v>36</v>
@@ -39703,7 +39714,7 @@
         <v>45</v>
       </c>
       <c r="L377" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M377" t="s">
         <v>41</v>
@@ -39777,7 +39788,7 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C378" t="s">
         <v>34</v>
@@ -39881,7 +39892,7 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C379" t="s">
         <v>34</v>
@@ -39890,10 +39901,10 @@
         <v>18</v>
       </c>
       <c r="E379" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F379" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G379" t="s">
         <v>44</v>
@@ -39908,7 +39919,7 @@
         <v>39</v>
       </c>
       <c r="K379" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L379" t="s">
         <v>40</v>
@@ -39985,7 +39996,7 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C380" t="s">
         <v>34</v>
@@ -40015,7 +40026,7 @@
         <v>45</v>
       </c>
       <c r="L380" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M380" t="s">
         <v>41</v>
@@ -40089,7 +40100,7 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C381" t="s">
         <v>34</v>
@@ -40098,7 +40109,7 @@
         <v>17</v>
       </c>
       <c r="E381" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F381" t="s">
         <v>36</v>
@@ -40119,7 +40130,7 @@
         <v>45</v>
       </c>
       <c r="L381" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M381" t="s">
         <v>41</v>
@@ -40193,10 +40204,10 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C382" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D382">
         <v>18</v>
@@ -40223,7 +40234,7 @@
         <v>39</v>
       </c>
       <c r="L382" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M382" t="s">
         <v>46</v>
@@ -40297,16 +40308,16 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C383" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D383">
         <v>18</v>
       </c>
       <c r="E383" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F383" t="s">
         <v>36</v>
@@ -40401,10 +40412,10 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C384" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D384">
         <v>17</v>
@@ -40428,10 +40439,10 @@
         <v>45</v>
       </c>
       <c r="K384" t="s">
+        <v>48</v>
+      </c>
+      <c r="L384" t="s">
         <v>49</v>
-      </c>
-      <c r="L384" t="s">
-        <v>50</v>
       </c>
       <c r="M384" t="s">
         <v>46</v>
@@ -40505,16 +40516,16 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C385" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D385">
         <v>19</v>
       </c>
       <c r="E385" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F385" t="s">
         <v>36</v>
@@ -40532,7 +40543,7 @@
         <v>45</v>
       </c>
       <c r="K385" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L385" t="s">
         <v>45</v>
@@ -40609,16 +40620,16 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C386" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D386">
         <v>18</v>
       </c>
       <c r="E386" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F386" t="s">
         <v>36</v>
@@ -40639,7 +40650,7 @@
         <v>45</v>
       </c>
       <c r="L386" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M386" t="s">
         <v>46</v>
@@ -40713,7 +40724,7 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C387" t="s">
         <v>34</v>
@@ -40722,7 +40733,7 @@
         <v>18</v>
       </c>
       <c r="E387" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F387" t="s">
         <v>36</v>
@@ -40817,7 +40828,7 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C388" t="s">
         <v>34</v>
@@ -40826,7 +40837,7 @@
         <v>18</v>
       </c>
       <c r="E388" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F388" t="s">
         <v>36</v>
@@ -40847,7 +40858,7 @@
         <v>38</v>
       </c>
       <c r="L388" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M388" t="s">
         <v>41</v>
@@ -40921,7 +40932,7 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C389" t="s">
         <v>34</v>
@@ -40930,7 +40941,7 @@
         <v>19</v>
       </c>
       <c r="E389" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F389" t="s">
         <v>36</v>
@@ -40945,7 +40956,7 @@
         <v>3</v>
       </c>
       <c r="J389" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K389" t="s">
         <v>45</v>
@@ -41025,7 +41036,7 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C390" t="s">
         <v>34</v>
@@ -41037,7 +41048,7 @@
         <v>35</v>
       </c>
       <c r="F390" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G390" t="s">
         <v>44</v>
@@ -41052,7 +41063,7 @@
         <v>39</v>
       </c>
       <c r="K390" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L390" t="s">
         <v>40</v>
@@ -41129,7 +41140,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C391" t="s">
         <v>34</v>
@@ -41233,10 +41244,10 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C392" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D392">
         <v>20</v>
@@ -41245,7 +41256,7 @@
         <v>35</v>
       </c>
       <c r="F392" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G392" t="s">
         <v>37</v>
@@ -41257,10 +41268,10 @@
         <v>2</v>
       </c>
       <c r="J392" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K392" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L392" t="s">
         <v>40</v>
@@ -41337,10 +41348,10 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C393" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D393">
         <v>17</v>
@@ -41349,7 +41360,7 @@
         <v>35</v>
       </c>
       <c r="F393" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G393" t="s">
         <v>44</v>
@@ -41361,10 +41372,10 @@
         <v>1</v>
       </c>
       <c r="J393" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K393" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L393" t="s">
         <v>40</v>
@@ -41441,16 +41452,16 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C394" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D394">
         <v>21</v>
       </c>
       <c r="E394" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F394" t="s">
         <v>36</v>
@@ -41545,19 +41556,19 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C395" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D395">
         <v>18</v>
       </c>
       <c r="E395" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F395" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G395" t="s">
         <v>44</v>
@@ -41569,7 +41580,7 @@
         <v>2</v>
       </c>
       <c r="J395" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K395" t="s">
         <v>45</v>
@@ -41649,10 +41660,10 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C396" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D396">
         <v>19</v>
@@ -41661,7 +41672,7 @@
         <v>35</v>
       </c>
       <c r="F396" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G396" t="s">
         <v>44</v>
@@ -41765,10 +41776,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
         <v>55</v>
-      </c>
-      <c r="B1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -41776,7 +41787,7 @@
         <v>0.25</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -41784,7 +41795,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -41792,7 +41803,7 @@
         <v>0.32</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -41800,7 +41811,7 @@
         <v>0.22</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -41808,7 +41819,7 @@
         <v>0.22</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -41816,7 +41827,7 @@
         <v>0.22</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -41824,7 +41835,7 @@
         <v>0.25</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -41832,7 +41843,7 @@
         <v>0.24</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -41840,7 +41851,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -41848,7 +41859,7 @@
         <v>0.31</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -41856,7 +41867,7 @@
         <v>0.21</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -41864,7 +41875,7 @@
         <v>0.22</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -41872,7 +41883,7 @@
         <v>0.25</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -41880,7 +41891,7 @@
         <v>0.26</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -41888,7 +41899,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -41896,7 +41907,7 @@
         <v>0.25</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -41904,7 +41915,7 @@
         <v>0.22</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -41912,7 +41923,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -41920,7 +41931,7 @@
         <v>0.31</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -41928,7 +41939,7 @@
         <v>0.31</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -41936,7 +41947,7 @@
         <v>0.33</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -41944,7 +41955,7 @@
         <v>0.3</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -41952,7 +41963,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -41960,7 +41971,7 @@
         <v>0.25</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -41968,7 +41979,7 @@
         <v>0.22</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -41976,7 +41987,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -41984,7 +41995,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -41992,7 +42003,7 @@
         <v>0.25</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -42000,7 +42011,7 @@
         <v>0.3</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -42012,7 +42023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B82EA65-ADD4-40D6-9409-77952CAC25F4}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -42075,13 +42086,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
         <v>62</v>
-      </c>
-      <c r="C1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -42089,7 +42100,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
@@ -42100,10 +42111,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
         <v>64</v>
-      </c>
-      <c r="C3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -42111,10 +42122,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -42122,10 +42133,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -42133,7 +42144,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
         <v>37</v>
@@ -42144,10 +42155,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -42155,10 +42166,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -42166,10 +42177,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -42177,7 +42188,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
@@ -42188,10 +42199,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -42199,10 +42210,10 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -42210,10 +42221,10 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -42221,7 +42232,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
         <v>37</v>
@@ -42232,10 +42243,10 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -42243,10 +42254,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -42254,10 +42265,10 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
